--- a/excel/finished/焦化/CK67-干熄焦-筛焦除尘报表（日）.xlsx
+++ b/excel/finished/焦化/CK67-干熄焦-筛焦除尘报表（日）.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19935" windowHeight="7785"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="5.筛焦除尘" sheetId="1" r:id="rId1"/>
-    <sheet name="_screenCoke_day_hour" sheetId="2" r:id="rId2"/>
-    <sheet name="_metadata" sheetId="3" r:id="rId3"/>
+    <sheet name="5.筛焦除尘" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="_screenCoke_day_hour" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="_metadata" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>6&amp;7#焦炉筛焦除尘</t>
   </si>
@@ -28,30 +27,27 @@
   时间</t>
   </si>
   <si>
-    <t>电机轴温 （℃）</t>
+    <t xml:space="preserve">电机轴温 （℃）</t>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="14"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
+        <sz val="14"/>
       </rPr>
       <t>电机定子温度</t>
     </r>
     <r>
       <rPr>
-        <sz val="14"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <sz val="14"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <sz val="14"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
+        <sz val="14"/>
       </rPr>
       <t>（℃）</t>
     </r>
@@ -59,41 +55,36 @@
   <si>
     <r>
       <rPr>
-        <sz val="14"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
+        <sz val="14"/>
       </rPr>
       <t>电机电流</t>
     </r>
     <r>
       <rPr>
-        <sz val="14"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <sz val="14"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <sz val="14"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
+        <sz val="14"/>
       </rPr>
       <t>（</t>
     </r>
     <r>
       <rPr>
-        <sz val="14"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <sz val="14"/>
       </rPr>
       <t>A</t>
     </r>
     <r>
       <rPr>
-        <sz val="14"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
+        <sz val="14"/>
       </rPr>
       <t>）</t>
     </r>
@@ -101,26 +92,23 @@
   <si>
     <r>
       <rPr>
-        <sz val="14"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">电机转速
+        <sz val="14"/>
+      </rPr>
+      <t xml:space="preserve">电机频率
 </t>
     </r>
     <r>
       <rPr>
-        <sz val="14"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> (r/h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
+        <sz val="14"/>
+      </rPr>
+      <t xml:space="preserve"> (Hz</t>
+    </r>
+    <r>
+      <rPr>
         <rFont val="宋体"/>
-        <charset val="134"/>
+        <sz val="14"/>
       </rPr>
       <t>）</t>
     </r>
@@ -128,58 +116,51 @@
   <si>
     <r>
       <rPr>
-        <sz val="14"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
+        <sz val="14"/>
       </rPr>
       <t>冷却水流量</t>
     </r>
     <r>
       <rPr>
-        <sz val="14"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <sz val="14"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <sz val="14"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
+        <sz val="14"/>
       </rPr>
       <t>（</t>
     </r>
     <r>
       <rPr>
-        <sz val="14"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <sz val="14"/>
       </rPr>
       <t>m</t>
     </r>
     <r>
       <rPr>
+        <rFont val="Times New Roman"/>
+        <sz val="14"/>
         <vertAlign val="superscript"/>
-        <sz val="14"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <sz val="14"/>
       </rPr>
       <t>/h</t>
     </r>
     <r>
       <rPr>
-        <sz val="14"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
+        <sz val="14"/>
       </rPr>
       <t>）</t>
     </r>
@@ -187,25 +168,22 @@
   <si>
     <r>
       <rPr>
-        <sz val="14"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
+        <sz val="14"/>
       </rPr>
       <t>风机轴温</t>
     </r>
     <r>
       <rPr>
-        <sz val="14"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <sz val="14"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <sz val="14"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
+        <sz val="14"/>
       </rPr>
       <t>（℃）</t>
     </r>
@@ -213,86 +191,76 @@
   <si>
     <r>
       <rPr>
-        <sz val="14"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
+        <sz val="14"/>
       </rPr>
       <t>风机轴承振幅</t>
     </r>
     <r>
       <rPr>
-        <sz val="14"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <sz val="14"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <sz val="14"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
+        <sz val="14"/>
       </rPr>
       <t>（</t>
     </r>
     <r>
       <rPr>
-        <sz val="14"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <sz val="14"/>
       </rPr>
       <t>mm/s</t>
     </r>
     <r>
       <rPr>
-        <sz val="14"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
+        <sz val="14"/>
       </rPr>
       <t>）</t>
     </r>
   </si>
   <si>
-    <t>除尘器温度 （℃）</t>
+    <t xml:space="preserve">除尘器温度 （℃）</t>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="14"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
+        <sz val="14"/>
       </rPr>
       <t>除尘压差</t>
     </r>
     <r>
       <rPr>
-        <sz val="14"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <sz val="14"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <sz val="14"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
+        <sz val="14"/>
       </rPr>
       <t>（</t>
     </r>
     <r>
       <rPr>
-        <sz val="14"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <sz val="14"/>
       </rPr>
       <t>Kpa</t>
     </r>
     <r>
       <rPr>
-        <sz val="14"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
+        <sz val="14"/>
       </rPr>
       <t>）</t>
     </r>
@@ -300,41 +268,36 @@
   <si>
     <r>
       <rPr>
-        <sz val="14"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
+        <sz val="14"/>
       </rPr>
       <t>储气罐压力</t>
     </r>
     <r>
       <rPr>
-        <sz val="14"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <sz val="14"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <sz val="14"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
+        <sz val="14"/>
       </rPr>
       <t>（</t>
     </r>
     <r>
       <rPr>
-        <sz val="14"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <sz val="14"/>
       </rPr>
       <t>Mpa</t>
     </r>
     <r>
       <rPr>
-        <sz val="14"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
+        <sz val="14"/>
       </rPr>
       <t>）</t>
     </r>
@@ -342,18 +305,16 @@
   <si>
     <r>
       <rPr>
-        <sz val="14"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <sz val="14"/>
       </rPr>
       <t xml:space="preserve">1
 </t>
     </r>
     <r>
       <rPr>
-        <sz val="14"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
+        <sz val="14"/>
       </rPr>
       <t>（驱动端）</t>
     </r>
@@ -361,18 +322,16 @@
   <si>
     <r>
       <rPr>
-        <sz val="14"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <sz val="14"/>
       </rPr>
       <t xml:space="preserve">2
 </t>
     </r>
     <r>
       <rPr>
-        <sz val="14"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
+        <sz val="14"/>
       </rPr>
       <t>（非驱动端）</t>
     </r>
@@ -380,17 +339,15 @@
   <si>
     <r>
       <rPr>
-        <sz val="14"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <sz val="14"/>
       </rPr>
       <t>1</t>
     </r>
     <r>
       <rPr>
-        <sz val="14"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
+        <sz val="14"/>
       </rPr>
       <t>（驱动端）</t>
     </r>
@@ -398,18 +355,16 @@
   <si>
     <r>
       <rPr>
-        <sz val="14"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <sz val="14"/>
       </rPr>
       <t xml:space="preserve">1A
 </t>
     </r>
     <r>
       <rPr>
-        <sz val="14"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
+        <sz val="14"/>
       </rPr>
       <t>（径向驱动端）</t>
     </r>
@@ -417,18 +372,16 @@
   <si>
     <r>
       <rPr>
-        <sz val="14"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <sz val="14"/>
       </rPr>
       <t xml:space="preserve">2A
 </t>
     </r>
     <r>
       <rPr>
-        <sz val="14"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
+        <sz val="14"/>
       </rPr>
       <t>（轴向非驱动端）</t>
     </r>
@@ -436,18 +389,16 @@
   <si>
     <r>
       <rPr>
-        <sz val="14"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <sz val="14"/>
       </rPr>
       <t xml:space="preserve">1B
 </t>
     </r>
     <r>
       <rPr>
-        <sz val="14"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
+        <sz val="14"/>
       </rPr>
       <t>（轴向驱动端）</t>
     </r>
@@ -455,18 +406,16 @@
   <si>
     <r>
       <rPr>
-        <sz val="14"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <sz val="14"/>
       </rPr>
       <t xml:space="preserve">2B
 </t>
     </r>
     <r>
       <rPr>
-        <sz val="14"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
+        <sz val="14"/>
       </rPr>
       <t>（径向非驱动端）</t>
     </r>
@@ -538,31 +487,28 @@
     <r>
       <rPr>
         <b/>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <rFont val="Calibri Light"/>
         <scheme val="major"/>
+        <sz val="14"/>
       </rPr>
       <t xml:space="preserve">  夜</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color indexed="64"/>
+        <rFont val="Calibri Light"/>
         <scheme val="major"/>
+        <sz val="14"/>
       </rPr>
       <t>班记事：</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <rFont val="Calibri Light"/>
         <scheme val="major"/>
+        <sz val="14"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -571,31 +517,28 @@
     <r>
       <rPr>
         <b/>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <rFont val="Calibri Light"/>
         <scheme val="major"/>
+        <sz val="14"/>
       </rPr>
       <t xml:space="preserve">  白</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color indexed="64"/>
+        <rFont val="Calibri Light"/>
         <scheme val="major"/>
+        <sz val="14"/>
       </rPr>
       <t>班记事：</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <rFont val="Calibri Light"/>
         <scheme val="major"/>
+        <sz val="14"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -604,31 +547,28 @@
     <r>
       <rPr>
         <b/>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <rFont val="Calibri Light"/>
         <scheme val="major"/>
+        <sz val="14"/>
       </rPr>
       <t xml:space="preserve">  中</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color indexed="64"/>
+        <rFont val="Calibri Light"/>
         <scheme val="major"/>
+        <sz val="14"/>
       </rPr>
       <t>班记事：</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <rFont val="Calibri Light"/>
         <scheme val="major"/>
+        <sz val="14"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -640,253 +580,200 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.000"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.0"/>
+    <numFmt numFmtId="160" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="161" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="162" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="163" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="32">
     <font>
+      <name val="Calibri"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <color rgb="FF3F3F76"/>
       <sz val="11"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="22"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
+      <name val="Calibri"/>
+      <color rgb="FF9C0006"/>
       <sz val="11"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <color theme="0"/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <color indexed="4"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
+      <color indexed="20"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <b/>
+      <color theme="3"/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <color indexed="2"/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <name val="Calibri"/>
+      <b/>
+      <color theme="3"/>
+      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <i/>
+      <color rgb="FF7F7F7F"/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <b/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <name val="Calibri"/>
+      <b/>
+      <color indexed="65"/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <name val="Calibri"/>
+      <b/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <name val="Calibri"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <b/>
+      <sz val="22"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <b/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <b/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <name val="等线"/>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+    </font>
+    <font>
       <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <color theme="1"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="14"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
+      <name val="Calibri Light"/>
       <b/>
       <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="major"/>
     </font>
   </fonts>
@@ -895,496 +782,207 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="6" tint="0.79998168889431398"/>
+        <bgColor theme="6" tint="0.79998168889431398"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810496"/>
+        <bgColor theme="6" tint="0.59999389629810496"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241899"/>
+        <bgColor theme="6" tint="0.39997558519241899"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241899"/>
+        <bgColor theme="5" tint="0.39997558519241899"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241899"/>
+        <bgColor theme="4" tint="0.39997558519241899"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241899"/>
+        <bgColor theme="7" tint="0.39997558519241899"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431398"/>
+        <bgColor theme="9" tint="0.79998168889431398"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor theme="5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="8" tint="0.79998168889431398"/>
+        <bgColor theme="8" tint="0.79998168889431398"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="4" tint="0.79998168889431398"/>
+        <bgColor theme="4" tint="0.79998168889431398"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="4" tint="0.59999389629810496"/>
+        <bgColor theme="4" tint="0.59999389629810496"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="5" tint="0.79998168889431398"/>
+        <bgColor theme="5" tint="0.79998168889431398"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="5" tint="0.59999389629810496"/>
+        <bgColor theme="5" tint="0.59999389629810496"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="6"/>
+        <bgColor theme="6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="7"/>
+        <bgColor theme="7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="7" tint="0.79998168889431398"/>
+        <bgColor theme="7" tint="0.79998168889431398"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="7" tint="0.59999389629810496"/>
+        <bgColor theme="7" tint="0.59999389629810496"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="8" tint="0.59999389629810496"/>
+        <bgColor theme="8" tint="0.59999389629810496"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="8" tint="0.39997558519241899"/>
+        <bgColor theme="8" tint="0.39997558519241899"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="9" tint="0.59999389629810496"/>
+        <bgColor theme="9" tint="0.59999389629810496"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="9" tint="0.39997558519241899"/>
+        <bgColor theme="9" tint="0.39997558519241899"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="2"/>
+        <bgColor theme="2"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="30">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalDown="1">
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal style="medium">
-        <color auto="1"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalDown="1">
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal style="medium">
-        <color auto="1"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1403,35 +1001,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1443,6 +1012,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1476,299 +1063,582 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal style="medium">
+        <color theme="1"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal style="medium">
+        <color theme="1"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="160" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="3" borderId="1" numFmtId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="161" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="162" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="4" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="5" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="163" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="6" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="9" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="7" borderId="2" numFmtId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="8" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="6" fillId="0" borderId="0" numFmtId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="7" fillId="0" borderId="0" numFmtId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="8" fillId="0" borderId="0" numFmtId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="9" fillId="0" borderId="0" numFmtId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="10" fillId="0" borderId="3" numFmtId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="11" fillId="0" borderId="3" numFmtId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="9" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="6" fillId="0" borderId="4" numFmtId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="10" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="12" fillId="11" borderId="5" numFmtId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="13" fillId="11" borderId="1" numFmtId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="14" fillId="12" borderId="6" numFmtId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="13" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="14" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="15" fillId="0" borderId="7" numFmtId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="16" fillId="0" borderId="8" numFmtId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="17" fillId="15" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="18" fillId="16" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="17" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="18" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="19" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="20" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="21" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="22" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="23" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="24" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="25" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="26" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="27" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="28" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="29" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="30" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="31" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="32" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="19" fillId="0" borderId="0" numFmtId="0" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="48">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="46">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="20" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="21" fillId="0" borderId="0" numFmtId="0" xfId="49" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="22" fillId="0" borderId="9" numFmtId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="23" fillId="0" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="24" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="22" fillId="0" borderId="9" numFmtId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="25" fillId="33" borderId="10" numFmtId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="25" fillId="33" borderId="11" numFmtId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf fontId="26" fillId="33" borderId="12" numFmtId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf fontId="26" fillId="33" borderId="11" numFmtId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf fontId="26" fillId="33" borderId="13" numFmtId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf fontId="26" fillId="33" borderId="14" numFmtId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="25" fillId="33" borderId="14" numFmtId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="26" fillId="33" borderId="15" numFmtId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="25" fillId="33" borderId="16" numFmtId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="26" fillId="33" borderId="17" numFmtId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="26" fillId="33" borderId="18" numFmtId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="26" fillId="33" borderId="19" numFmtId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="19" fillId="0" borderId="20" numFmtId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="27" fillId="0" borderId="17" numFmtId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="28" fillId="0" borderId="17" numFmtId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="19" fillId="0" borderId="17" numFmtId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="28" fillId="0" borderId="21" numFmtId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="26" fillId="0" borderId="20" numFmtId="20" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="29" fillId="0" borderId="17" numFmtId="164" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="29" fillId="0" borderId="17" numFmtId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="29" fillId="0" borderId="17" numFmtId="165" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf fontId="29" fillId="0" borderId="21" numFmtId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf fontId="29" fillId="0" borderId="17" numFmtId="165" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf fontId="29" fillId="0" borderId="17" numFmtId="164" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="29" fillId="0" borderId="17" numFmtId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="29" fillId="0" borderId="17" numFmtId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="29" fillId="0" borderId="21" numFmtId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="25" fillId="0" borderId="20" numFmtId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf fontId="30" fillId="0" borderId="17" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="29" fillId="0" borderId="22" numFmtId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="29" fillId="0" borderId="21" numFmtId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="25" fillId="0" borderId="23" numFmtId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="9" fillId="0" borderId="12" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf fontId="29" fillId="0" borderId="24" numFmtId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="13" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf fontId="31" fillId="0" borderId="25" numFmtId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf fontId="31" fillId="0" borderId="26" numFmtId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf fontId="31" fillId="0" borderId="27" numFmtId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf fontId="31" fillId="0" borderId="28" numFmtId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf fontId="31" fillId="0" borderId="9" numFmtId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf fontId="31" fillId="0" borderId="29" numFmtId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="22" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1823,17 +1693,296 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
     <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1876,73 +2025,13 @@
     <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1950,7 +2039,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1976,7 +2065,7 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -2028,16 +2117,28 @@
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -2053,7 +2154,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -2088,116 +2189,114 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="B1:S35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView workbookViewId="0" zoomScale="70">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="14.9083333333333" style="1" customWidth="1"/>
-    <col min="3" max="4" width="15.9083333333333" style="1" customWidth="1"/>
-    <col min="5" max="7" width="8.09166666666667" style="1" customWidth="1"/>
-    <col min="8" max="10" width="14.8166666666667" style="1" customWidth="1"/>
-    <col min="11" max="16" width="12" style="1" customWidth="1"/>
-    <col min="17" max="19" width="15.5416666666667" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="1"/>
+    <col min="1" max="1" style="1" width="9"/>
+    <col customWidth="1" min="2" max="2" style="1" width="14.908333333333299"/>
+    <col customWidth="1" min="3" max="4" style="1" width="15.908333333333299"/>
+    <col customWidth="1" min="5" max="7" style="1" width="8.0916666666666703"/>
+    <col customWidth="1" min="8" max="10" style="1" width="14.8166666666667"/>
+    <col customWidth="1" min="11" max="16" style="1" width="12"/>
+    <col customWidth="1" min="17" max="19" style="1" width="15.5416666666667"/>
+    <col min="20" max="16384" style="1" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="2:19">
-      <c r="B1" s="6" t="s">
+    <row ht="24" r="1">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
     </row>
-    <row r="2" ht="22" customHeight="1" spans="2:19">
-      <c r="B2" s="7"/>
-      <c r="C2" s="8" t="str">
+    <row ht="22" customHeight="1" r="2">
+      <c r="B2" s="3"/>
+      <c r="C2" s="4" t="str">
         <f>IF(_metadata!B2="","",_metadata!B2)</f>
         <v/>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="35" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
     </row>
-    <row r="3" ht="37.5" customHeight="1" spans="2:19">
-      <c r="B3" s="9" t="s">
+    <row ht="37.5" customHeight="1" r="3">
+      <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="14" t="s">
+      <c r="F3" s="11"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="11"/>
-      <c r="M3" s="12" t="s">
+      <c r="L3" s="9"/>
+      <c r="M3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="39" t="s">
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="14" t="s">
+      <c r="R3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="S3" s="40" t="s">
+      <c r="S3" s="14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" ht="56.25" spans="2:19">
+    <row ht="56.25" r="4">
       <c r="B4" s="15"/>
       <c r="C4" s="16" t="s">
         <v>13</v>
@@ -2237,2157 +2336,2157 @@
       </c>
       <c r="Q4" s="17"/>
       <c r="R4" s="17"/>
-      <c r="S4" s="41"/>
+      <c r="S4" s="18"/>
     </row>
-    <row r="5" ht="51" hidden="1" spans="2:19">
-      <c r="B5" s="18" t="s">
+    <row ht="51" hidden="1" r="5">
+      <c r="B5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="O5" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="P5" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="3" t="s">
+      <c r="Q5" s="22"/>
+      <c r="R5" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="S5" s="5" t="s">
+      <c r="S5" s="23" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" ht="21.5" customHeight="1" spans="2:19">
-      <c r="B6" s="19">
+    <row ht="21.5" customHeight="1" r="6">
+      <c r="B6" s="24">
         <v>0</v>
       </c>
-      <c r="C6" s="20" t="str">
+      <c r="C6" s="25" t="str">
         <f>IF(_screenCoke_day_hour!A2="","",_screenCoke_day_hour!A2)</f>
         <v/>
       </c>
-      <c r="D6" s="20" t="str">
+      <c r="D6" s="25" t="str">
         <f>IF(_screenCoke_day_hour!B2="","",_screenCoke_day_hour!B2)</f>
         <v/>
       </c>
-      <c r="E6" s="20" t="str">
+      <c r="E6" s="25" t="str">
         <f>IF(_screenCoke_day_hour!C2="","",_screenCoke_day_hour!C2)</f>
         <v/>
       </c>
-      <c r="F6" s="20" t="str">
+      <c r="F6" s="25" t="str">
         <f>IF(_screenCoke_day_hour!D2="","",_screenCoke_day_hour!D2)</f>
         <v/>
       </c>
-      <c r="G6" s="20" t="str">
+      <c r="G6" s="25" t="str">
         <f>IF(_screenCoke_day_hour!E2="","",_screenCoke_day_hour!E2)</f>
         <v/>
       </c>
-      <c r="H6" s="21" t="str">
+      <c r="H6" s="25" t="str">
         <f>IF(_screenCoke_day_hour!F2="","",_screenCoke_day_hour!F2)</f>
         <v/>
       </c>
-      <c r="I6" s="21" t="str">
+      <c r="I6" s="25" t="str">
         <f>IF(_screenCoke_day_hour!G2="","",_screenCoke_day_hour!G2)</f>
         <v/>
       </c>
-      <c r="J6" s="36" t="str">
+      <c r="J6" s="26" t="str">
         <f>IF(_screenCoke_day_hour!H2="","",_screenCoke_day_hour!H2)</f>
         <v/>
       </c>
-      <c r="K6" s="21" t="str">
+      <c r="K6" s="25" t="str">
         <f>IF(_screenCoke_day_hour!I2="","",_screenCoke_day_hour!I2)</f>
         <v/>
       </c>
-      <c r="L6" s="21" t="str">
+      <c r="L6" s="25" t="str">
         <f>IF(_screenCoke_day_hour!J2="","",_screenCoke_day_hour!J2)</f>
         <v/>
       </c>
-      <c r="M6" s="36" t="str">
+      <c r="M6" s="26" t="str">
         <f>IF(_screenCoke_day_hour!K2="","",_screenCoke_day_hour!K2)</f>
         <v/>
       </c>
-      <c r="N6" s="36" t="str">
+      <c r="N6" s="26" t="str">
         <f>IF(_screenCoke_day_hour!L2="","",_screenCoke_day_hour!L2)</f>
         <v/>
       </c>
-      <c r="O6" s="36" t="str">
+      <c r="O6" s="26" t="str">
         <f>IF(_screenCoke_day_hour!M2="","",_screenCoke_day_hour!M2)</f>
         <v/>
       </c>
-      <c r="P6" s="36" t="str">
+      <c r="P6" s="26" t="str">
         <f>IF(_screenCoke_day_hour!N2="","",_screenCoke_day_hour!N2)</f>
         <v/>
       </c>
-      <c r="Q6" s="36" t="str">
+      <c r="Q6" s="26" t="str">
         <f>IF(_screenCoke_day_hour!O2="","",_screenCoke_day_hour!O2)</f>
         <v/>
       </c>
-      <c r="R6" s="42" t="str">
+      <c r="R6" s="27" t="str">
         <f>IF(_screenCoke_day_hour!P2="","",_screenCoke_day_hour!P2)</f>
         <v/>
       </c>
-      <c r="S6" s="43" t="str">
+      <c r="S6" s="28" t="str">
         <f>IF(_screenCoke_day_hour!Q2="","",_screenCoke_day_hour!Q2)</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="21.5" customHeight="1" spans="2:19">
-      <c r="B7" s="19">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="C7" s="20" t="str">
+    <row ht="21.5" customHeight="1" r="7">
+      <c r="B7" s="24">
+        <v>0.041666666666666699</v>
+      </c>
+      <c r="C7" s="25" t="str">
         <f>IF(_screenCoke_day_hour!A3="","",_screenCoke_day_hour!A3)</f>
         <v/>
       </c>
-      <c r="D7" s="20" t="str">
+      <c r="D7" s="25" t="str">
         <f>IF(_screenCoke_day_hour!B3="","",_screenCoke_day_hour!B3)</f>
         <v/>
       </c>
-      <c r="E7" s="20" t="str">
+      <c r="E7" s="25" t="str">
         <f>IF(_screenCoke_day_hour!C3="","",_screenCoke_day_hour!C3)</f>
         <v/>
       </c>
-      <c r="F7" s="20" t="str">
+      <c r="F7" s="25" t="str">
         <f>IF(_screenCoke_day_hour!D3="","",_screenCoke_day_hour!D3)</f>
         <v/>
       </c>
-      <c r="G7" s="20" t="str">
+      <c r="G7" s="25" t="str">
         <f>IF(_screenCoke_day_hour!E3="","",_screenCoke_day_hour!E3)</f>
         <v/>
       </c>
-      <c r="H7" s="21" t="str">
+      <c r="H7" s="25" t="str">
         <f>IF(_screenCoke_day_hour!F3="","",_screenCoke_day_hour!F3)</f>
         <v/>
       </c>
-      <c r="I7" s="21" t="str">
+      <c r="I7" s="25" t="str">
         <f>IF(_screenCoke_day_hour!G3="","",_screenCoke_day_hour!G3)</f>
         <v/>
       </c>
-      <c r="J7" s="36" t="str">
+      <c r="J7" s="26" t="str">
         <f>IF(_screenCoke_day_hour!H3="","",_screenCoke_day_hour!H3)</f>
         <v/>
       </c>
-      <c r="K7" s="21" t="str">
+      <c r="K7" s="25" t="str">
         <f>IF(_screenCoke_day_hour!I3="","",_screenCoke_day_hour!I3)</f>
         <v/>
       </c>
-      <c r="L7" s="21" t="str">
+      <c r="L7" s="25" t="str">
         <f>IF(_screenCoke_day_hour!J3="","",_screenCoke_day_hour!J3)</f>
         <v/>
       </c>
-      <c r="M7" s="36" t="str">
+      <c r="M7" s="26" t="str">
         <f>IF(_screenCoke_day_hour!K3="","",_screenCoke_day_hour!K3)</f>
         <v/>
       </c>
-      <c r="N7" s="36" t="str">
+      <c r="N7" s="26" t="str">
         <f>IF(_screenCoke_day_hour!L3="","",_screenCoke_day_hour!L3)</f>
         <v/>
       </c>
-      <c r="O7" s="36" t="str">
+      <c r="O7" s="26" t="str">
         <f>IF(_screenCoke_day_hour!M3="","",_screenCoke_day_hour!M3)</f>
         <v/>
       </c>
-      <c r="P7" s="36" t="str">
+      <c r="P7" s="26" t="str">
         <f>IF(_screenCoke_day_hour!N3="","",_screenCoke_day_hour!N3)</f>
         <v/>
       </c>
-      <c r="Q7" s="36" t="str">
+      <c r="Q7" s="26" t="str">
         <f>IF(_screenCoke_day_hour!O3="","",_screenCoke_day_hour!O3)</f>
         <v/>
       </c>
-      <c r="R7" s="42" t="str">
+      <c r="R7" s="27" t="str">
         <f>IF(_screenCoke_day_hour!P3="","",_screenCoke_day_hour!P3)</f>
         <v/>
       </c>
-      <c r="S7" s="43" t="str">
+      <c r="S7" s="28" t="str">
         <f>IF(_screenCoke_day_hour!Q3="","",_screenCoke_day_hour!Q3)</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="21.5" customHeight="1" spans="2:19">
-      <c r="B8" s="19">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="C8" s="20" t="str">
+    <row ht="21.5" customHeight="1" r="8">
+      <c r="B8" s="24">
+        <v>0.083333333333333301</v>
+      </c>
+      <c r="C8" s="25" t="str">
         <f>IF(_screenCoke_day_hour!A4="","",_screenCoke_day_hour!A4)</f>
         <v/>
       </c>
-      <c r="D8" s="20" t="str">
+      <c r="D8" s="25" t="str">
         <f>IF(_screenCoke_day_hour!B4="","",_screenCoke_day_hour!B4)</f>
         <v/>
       </c>
-      <c r="E8" s="20" t="str">
+      <c r="E8" s="25" t="str">
         <f>IF(_screenCoke_day_hour!C4="","",_screenCoke_day_hour!C4)</f>
         <v/>
       </c>
-      <c r="F8" s="20" t="str">
+      <c r="F8" s="25" t="str">
         <f>IF(_screenCoke_day_hour!D4="","",_screenCoke_day_hour!D4)</f>
         <v/>
       </c>
-      <c r="G8" s="20" t="str">
+      <c r="G8" s="25" t="str">
         <f>IF(_screenCoke_day_hour!E4="","",_screenCoke_day_hour!E4)</f>
         <v/>
       </c>
-      <c r="H8" s="21" t="str">
+      <c r="H8" s="25" t="str">
         <f>IF(_screenCoke_day_hour!F4="","",_screenCoke_day_hour!F4)</f>
         <v/>
       </c>
-      <c r="I8" s="21" t="str">
+      <c r="I8" s="25" t="str">
         <f>IF(_screenCoke_day_hour!G4="","",_screenCoke_day_hour!G4)</f>
         <v/>
       </c>
-      <c r="J8" s="36" t="str">
+      <c r="J8" s="26" t="str">
         <f>IF(_screenCoke_day_hour!H4="","",_screenCoke_day_hour!H4)</f>
         <v/>
       </c>
-      <c r="K8" s="21" t="str">
+      <c r="K8" s="25" t="str">
         <f>IF(_screenCoke_day_hour!I4="","",_screenCoke_day_hour!I4)</f>
         <v/>
       </c>
-      <c r="L8" s="21" t="str">
+      <c r="L8" s="25" t="str">
         <f>IF(_screenCoke_day_hour!J4="","",_screenCoke_day_hour!J4)</f>
         <v/>
       </c>
-      <c r="M8" s="36" t="str">
+      <c r="M8" s="26" t="str">
         <f>IF(_screenCoke_day_hour!K4="","",_screenCoke_day_hour!K4)</f>
         <v/>
       </c>
-      <c r="N8" s="36" t="str">
+      <c r="N8" s="26" t="str">
         <f>IF(_screenCoke_day_hour!L4="","",_screenCoke_day_hour!L4)</f>
         <v/>
       </c>
-      <c r="O8" s="36" t="str">
+      <c r="O8" s="26" t="str">
         <f>IF(_screenCoke_day_hour!M4="","",_screenCoke_day_hour!M4)</f>
         <v/>
       </c>
-      <c r="P8" s="36" t="str">
+      <c r="P8" s="26" t="str">
         <f>IF(_screenCoke_day_hour!N4="","",_screenCoke_day_hour!N4)</f>
         <v/>
       </c>
-      <c r="Q8" s="36" t="str">
+      <c r="Q8" s="26" t="str">
         <f>IF(_screenCoke_day_hour!O4="","",_screenCoke_day_hour!O4)</f>
         <v/>
       </c>
-      <c r="R8" s="44" t="str">
+      <c r="R8" s="29" t="str">
         <f>IF(_screenCoke_day_hour!P4="","",_screenCoke_day_hour!P4)</f>
         <v/>
       </c>
-      <c r="S8" s="43" t="str">
+      <c r="S8" s="28" t="str">
         <f>IF(_screenCoke_day_hour!Q4="","",_screenCoke_day_hour!Q4)</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="21.5" customHeight="1" spans="2:19">
-      <c r="B9" s="19">
+    <row ht="21.5" customHeight="1" r="9">
+      <c r="B9" s="24">
         <v>0.125</v>
       </c>
-      <c r="C9" s="20" t="str">
+      <c r="C9" s="25" t="str">
         <f>IF(_screenCoke_day_hour!A5="","",_screenCoke_day_hour!A5)</f>
         <v/>
       </c>
-      <c r="D9" s="20" t="str">
+      <c r="D9" s="25" t="str">
         <f>IF(_screenCoke_day_hour!B5="","",_screenCoke_day_hour!B5)</f>
         <v/>
       </c>
-      <c r="E9" s="20" t="str">
+      <c r="E9" s="25" t="str">
         <f>IF(_screenCoke_day_hour!C5="","",_screenCoke_day_hour!C5)</f>
         <v/>
       </c>
-      <c r="F9" s="20" t="str">
+      <c r="F9" s="25" t="str">
         <f>IF(_screenCoke_day_hour!D5="","",_screenCoke_day_hour!D5)</f>
         <v/>
       </c>
-      <c r="G9" s="20" t="str">
+      <c r="G9" s="25" t="str">
         <f>IF(_screenCoke_day_hour!E5="","",_screenCoke_day_hour!E5)</f>
         <v/>
       </c>
-      <c r="H9" s="21" t="str">
+      <c r="H9" s="25" t="str">
         <f>IF(_screenCoke_day_hour!F5="","",_screenCoke_day_hour!F5)</f>
         <v/>
       </c>
-      <c r="I9" s="21" t="str">
+      <c r="I9" s="25" t="str">
         <f>IF(_screenCoke_day_hour!G5="","",_screenCoke_day_hour!G5)</f>
         <v/>
       </c>
-      <c r="J9" s="36" t="str">
+      <c r="J9" s="26" t="str">
         <f>IF(_screenCoke_day_hour!H5="","",_screenCoke_day_hour!H5)</f>
         <v/>
       </c>
-      <c r="K9" s="21" t="str">
+      <c r="K9" s="25" t="str">
         <f>IF(_screenCoke_day_hour!I5="","",_screenCoke_day_hour!I5)</f>
         <v/>
       </c>
-      <c r="L9" s="21" t="str">
+      <c r="L9" s="25" t="str">
         <f>IF(_screenCoke_day_hour!J5="","",_screenCoke_day_hour!J5)</f>
         <v/>
       </c>
-      <c r="M9" s="36" t="str">
+      <c r="M9" s="26" t="str">
         <f>IF(_screenCoke_day_hour!K5="","",_screenCoke_day_hour!K5)</f>
         <v/>
       </c>
-      <c r="N9" s="36" t="str">
+      <c r="N9" s="26" t="str">
         <f>IF(_screenCoke_day_hour!L5="","",_screenCoke_day_hour!L5)</f>
         <v/>
       </c>
-      <c r="O9" s="36" t="str">
+      <c r="O9" s="26" t="str">
         <f>IF(_screenCoke_day_hour!M5="","",_screenCoke_day_hour!M5)</f>
         <v/>
       </c>
-      <c r="P9" s="36" t="str">
+      <c r="P9" s="26" t="str">
         <f>IF(_screenCoke_day_hour!N5="","",_screenCoke_day_hour!N5)</f>
         <v/>
       </c>
-      <c r="Q9" s="36" t="str">
+      <c r="Q9" s="26" t="str">
         <f>IF(_screenCoke_day_hour!O5="","",_screenCoke_day_hour!O5)</f>
         <v/>
       </c>
-      <c r="R9" s="44" t="str">
+      <c r="R9" s="29" t="str">
         <f>IF(_screenCoke_day_hour!P5="","",_screenCoke_day_hour!P5)</f>
         <v/>
       </c>
-      <c r="S9" s="43" t="str">
+      <c r="S9" s="28" t="str">
         <f>IF(_screenCoke_day_hour!Q5="","",_screenCoke_day_hour!Q5)</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="21.5" customHeight="1" spans="2:19">
-      <c r="B10" s="19">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="C10" s="20" t="str">
+    <row ht="21.5" customHeight="1" r="10">
+      <c r="B10" s="24">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="C10" s="25" t="str">
         <f>IF(_screenCoke_day_hour!A6="","",_screenCoke_day_hour!A6)</f>
         <v/>
       </c>
-      <c r="D10" s="20" t="str">
+      <c r="D10" s="25" t="str">
         <f>IF(_screenCoke_day_hour!B6="","",_screenCoke_day_hour!B6)</f>
         <v/>
       </c>
-      <c r="E10" s="20" t="str">
+      <c r="E10" s="25" t="str">
         <f>IF(_screenCoke_day_hour!C6="","",_screenCoke_day_hour!C6)</f>
         <v/>
       </c>
-      <c r="F10" s="20" t="str">
+      <c r="F10" s="25" t="str">
         <f>IF(_screenCoke_day_hour!D6="","",_screenCoke_day_hour!D6)</f>
         <v/>
       </c>
-      <c r="G10" s="20" t="str">
+      <c r="G10" s="25" t="str">
         <f>IF(_screenCoke_day_hour!E6="","",_screenCoke_day_hour!E6)</f>
         <v/>
       </c>
-      <c r="H10" s="21" t="str">
+      <c r="H10" s="25" t="str">
         <f>IF(_screenCoke_day_hour!F6="","",_screenCoke_day_hour!F6)</f>
         <v/>
       </c>
-      <c r="I10" s="21" t="str">
+      <c r="I10" s="25" t="str">
         <f>IF(_screenCoke_day_hour!G6="","",_screenCoke_day_hour!G6)</f>
         <v/>
       </c>
-      <c r="J10" s="36" t="str">
+      <c r="J10" s="26" t="str">
         <f>IF(_screenCoke_day_hour!H6="","",_screenCoke_day_hour!H6)</f>
         <v/>
       </c>
-      <c r="K10" s="21" t="str">
+      <c r="K10" s="25" t="str">
         <f>IF(_screenCoke_day_hour!I6="","",_screenCoke_day_hour!I6)</f>
         <v/>
       </c>
-      <c r="L10" s="21" t="str">
+      <c r="L10" s="25" t="str">
         <f>IF(_screenCoke_day_hour!J6="","",_screenCoke_day_hour!J6)</f>
         <v/>
       </c>
-      <c r="M10" s="36" t="str">
+      <c r="M10" s="26" t="str">
         <f>IF(_screenCoke_day_hour!K6="","",_screenCoke_day_hour!K6)</f>
         <v/>
       </c>
-      <c r="N10" s="36" t="str">
+      <c r="N10" s="26" t="str">
         <f>IF(_screenCoke_day_hour!L6="","",_screenCoke_day_hour!L6)</f>
         <v/>
       </c>
-      <c r="O10" s="36" t="str">
+      <c r="O10" s="26" t="str">
         <f>IF(_screenCoke_day_hour!M6="","",_screenCoke_day_hour!M6)</f>
         <v/>
       </c>
-      <c r="P10" s="36" t="str">
+      <c r="P10" s="26" t="str">
         <f>IF(_screenCoke_day_hour!N6="","",_screenCoke_day_hour!N6)</f>
         <v/>
       </c>
-      <c r="Q10" s="36" t="str">
+      <c r="Q10" s="26" t="str">
         <f>IF(_screenCoke_day_hour!O6="","",_screenCoke_day_hour!O6)</f>
         <v/>
       </c>
-      <c r="R10" s="44" t="str">
+      <c r="R10" s="29" t="str">
         <f>IF(_screenCoke_day_hour!P6="","",_screenCoke_day_hour!P6)</f>
         <v/>
       </c>
-      <c r="S10" s="43" t="str">
+      <c r="S10" s="28" t="str">
         <f>IF(_screenCoke_day_hour!Q6="","",_screenCoke_day_hour!Q6)</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="21.5" customHeight="1" spans="2:19">
-      <c r="B11" s="19">
-        <v>0.208333333333333</v>
-      </c>
-      <c r="C11" s="20" t="str">
+    <row ht="21.5" customHeight="1" r="11">
+      <c r="B11" s="24">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="C11" s="25" t="str">
         <f>IF(_screenCoke_day_hour!A7="","",_screenCoke_day_hour!A7)</f>
         <v/>
       </c>
-      <c r="D11" s="20" t="str">
+      <c r="D11" s="25" t="str">
         <f>IF(_screenCoke_day_hour!B7="","",_screenCoke_day_hour!B7)</f>
         <v/>
       </c>
-      <c r="E11" s="20" t="str">
+      <c r="E11" s="25" t="str">
         <f>IF(_screenCoke_day_hour!C7="","",_screenCoke_day_hour!C7)</f>
         <v/>
       </c>
-      <c r="F11" s="20" t="str">
+      <c r="F11" s="25" t="str">
         <f>IF(_screenCoke_day_hour!D7="","",_screenCoke_day_hour!D7)</f>
         <v/>
       </c>
-      <c r="G11" s="20" t="str">
+      <c r="G11" s="25" t="str">
         <f>IF(_screenCoke_day_hour!E7="","",_screenCoke_day_hour!E7)</f>
         <v/>
       </c>
-      <c r="H11" s="21" t="str">
+      <c r="H11" s="25" t="str">
         <f>IF(_screenCoke_day_hour!F7="","",_screenCoke_day_hour!F7)</f>
         <v/>
       </c>
-      <c r="I11" s="21" t="str">
+      <c r="I11" s="25" t="str">
         <f>IF(_screenCoke_day_hour!G7="","",_screenCoke_day_hour!G7)</f>
         <v/>
       </c>
-      <c r="J11" s="36" t="str">
+      <c r="J11" s="26" t="str">
         <f>IF(_screenCoke_day_hour!H7="","",_screenCoke_day_hour!H7)</f>
         <v/>
       </c>
-      <c r="K11" s="21" t="str">
+      <c r="K11" s="25" t="str">
         <f>IF(_screenCoke_day_hour!I7="","",_screenCoke_day_hour!I7)</f>
         <v/>
       </c>
-      <c r="L11" s="21" t="str">
+      <c r="L11" s="25" t="str">
         <f>IF(_screenCoke_day_hour!J7="","",_screenCoke_day_hour!J7)</f>
         <v/>
       </c>
-      <c r="M11" s="36" t="str">
+      <c r="M11" s="26" t="str">
         <f>IF(_screenCoke_day_hour!K7="","",_screenCoke_day_hour!K7)</f>
         <v/>
       </c>
-      <c r="N11" s="36" t="str">
+      <c r="N11" s="26" t="str">
         <f>IF(_screenCoke_day_hour!L7="","",_screenCoke_day_hour!L7)</f>
         <v/>
       </c>
-      <c r="O11" s="36" t="str">
+      <c r="O11" s="26" t="str">
         <f>IF(_screenCoke_day_hour!M7="","",_screenCoke_day_hour!M7)</f>
         <v/>
       </c>
-      <c r="P11" s="36" t="str">
+      <c r="P11" s="26" t="str">
         <f>IF(_screenCoke_day_hour!N7="","",_screenCoke_day_hour!N7)</f>
         <v/>
       </c>
-      <c r="Q11" s="36" t="str">
+      <c r="Q11" s="26" t="str">
         <f>IF(_screenCoke_day_hour!O7="","",_screenCoke_day_hour!O7)</f>
         <v/>
       </c>
-      <c r="R11" s="44" t="str">
+      <c r="R11" s="29" t="str">
         <f>IF(_screenCoke_day_hour!P7="","",_screenCoke_day_hour!P7)</f>
         <v/>
       </c>
-      <c r="S11" s="43" t="str">
+      <c r="S11" s="28" t="str">
         <f>IF(_screenCoke_day_hour!Q7="","",_screenCoke_day_hour!Q7)</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="21.5" customHeight="1" spans="2:19">
-      <c r="B12" s="19">
+    <row ht="21.5" customHeight="1" r="12">
+      <c r="B12" s="24">
         <v>0.25</v>
       </c>
-      <c r="C12" s="20" t="str">
+      <c r="C12" s="25" t="str">
         <f>IF(_screenCoke_day_hour!A8="","",_screenCoke_day_hour!A8)</f>
         <v/>
       </c>
-      <c r="D12" s="20" t="str">
+      <c r="D12" s="25" t="str">
         <f>IF(_screenCoke_day_hour!B8="","",_screenCoke_day_hour!B8)</f>
         <v/>
       </c>
-      <c r="E12" s="20" t="str">
+      <c r="E12" s="25" t="str">
         <f>IF(_screenCoke_day_hour!C8="","",_screenCoke_day_hour!C8)</f>
         <v/>
       </c>
-      <c r="F12" s="20" t="str">
+      <c r="F12" s="25" t="str">
         <f>IF(_screenCoke_day_hour!D8="","",_screenCoke_day_hour!D8)</f>
         <v/>
       </c>
-      <c r="G12" s="20" t="str">
+      <c r="G12" s="25" t="str">
         <f>IF(_screenCoke_day_hour!E8="","",_screenCoke_day_hour!E8)</f>
         <v/>
       </c>
-      <c r="H12" s="21" t="str">
+      <c r="H12" s="25" t="str">
         <f>IF(_screenCoke_day_hour!F8="","",_screenCoke_day_hour!F8)</f>
         <v/>
       </c>
-      <c r="I12" s="21" t="str">
+      <c r="I12" s="25" t="str">
         <f>IF(_screenCoke_day_hour!G8="","",_screenCoke_day_hour!G8)</f>
         <v/>
       </c>
-      <c r="J12" s="36" t="str">
+      <c r="J12" s="26" t="str">
         <f>IF(_screenCoke_day_hour!H8="","",_screenCoke_day_hour!H8)</f>
         <v/>
       </c>
-      <c r="K12" s="21" t="str">
+      <c r="K12" s="25" t="str">
         <f>IF(_screenCoke_day_hour!I8="","",_screenCoke_day_hour!I8)</f>
         <v/>
       </c>
-      <c r="L12" s="21" t="str">
+      <c r="L12" s="25" t="str">
         <f>IF(_screenCoke_day_hour!J8="","",_screenCoke_day_hour!J8)</f>
         <v/>
       </c>
-      <c r="M12" s="36" t="str">
+      <c r="M12" s="26" t="str">
         <f>IF(_screenCoke_day_hour!K8="","",_screenCoke_day_hour!K8)</f>
         <v/>
       </c>
-      <c r="N12" s="36" t="str">
+      <c r="N12" s="26" t="str">
         <f>IF(_screenCoke_day_hour!L8="","",_screenCoke_day_hour!L8)</f>
         <v/>
       </c>
-      <c r="O12" s="36" t="str">
+      <c r="O12" s="26" t="str">
         <f>IF(_screenCoke_day_hour!M8="","",_screenCoke_day_hour!M8)</f>
         <v/>
       </c>
-      <c r="P12" s="36" t="str">
+      <c r="P12" s="26" t="str">
         <f>IF(_screenCoke_day_hour!N8="","",_screenCoke_day_hour!N8)</f>
         <v/>
       </c>
-      <c r="Q12" s="36" t="str">
+      <c r="Q12" s="26" t="str">
         <f>IF(_screenCoke_day_hour!O8="","",_screenCoke_day_hour!O8)</f>
         <v/>
       </c>
-      <c r="R12" s="44" t="str">
+      <c r="R12" s="29" t="str">
         <f>IF(_screenCoke_day_hour!P8="","",_screenCoke_day_hour!P8)</f>
         <v/>
       </c>
-      <c r="S12" s="43" t="str">
+      <c r="S12" s="28" t="str">
         <f>IF(_screenCoke_day_hour!Q8="","",_screenCoke_day_hour!Q8)</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="21.5" customHeight="1" spans="2:19">
-      <c r="B13" s="19">
-        <v>0.291666666666667</v>
-      </c>
-      <c r="C13" s="20" t="str">
+    <row ht="21.5" customHeight="1" r="13">
+      <c r="B13" s="24">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="C13" s="25" t="str">
         <f>IF(_screenCoke_day_hour!A9="","",_screenCoke_day_hour!A9)</f>
         <v/>
       </c>
-      <c r="D13" s="20" t="str">
+      <c r="D13" s="25" t="str">
         <f>IF(_screenCoke_day_hour!B9="","",_screenCoke_day_hour!B9)</f>
         <v/>
       </c>
-      <c r="E13" s="20" t="str">
+      <c r="E13" s="25" t="str">
         <f>IF(_screenCoke_day_hour!C9="","",_screenCoke_day_hour!C9)</f>
         <v/>
       </c>
-      <c r="F13" s="20" t="str">
+      <c r="F13" s="25" t="str">
         <f>IF(_screenCoke_day_hour!D9="","",_screenCoke_day_hour!D9)</f>
         <v/>
       </c>
-      <c r="G13" s="20" t="str">
+      <c r="G13" s="25" t="str">
         <f>IF(_screenCoke_day_hour!E9="","",_screenCoke_day_hour!E9)</f>
         <v/>
       </c>
-      <c r="H13" s="21" t="str">
+      <c r="H13" s="25" t="str">
         <f>IF(_screenCoke_day_hour!F9="","",_screenCoke_day_hour!F9)</f>
         <v/>
       </c>
-      <c r="I13" s="21" t="str">
+      <c r="I13" s="25" t="str">
         <f>IF(_screenCoke_day_hour!G9="","",_screenCoke_day_hour!G9)</f>
         <v/>
       </c>
-      <c r="J13" s="36" t="str">
+      <c r="J13" s="26" t="str">
         <f>IF(_screenCoke_day_hour!H9="","",_screenCoke_day_hour!H9)</f>
         <v/>
       </c>
-      <c r="K13" s="21" t="str">
+      <c r="K13" s="25" t="str">
         <f>IF(_screenCoke_day_hour!I9="","",_screenCoke_day_hour!I9)</f>
         <v/>
       </c>
-      <c r="L13" s="21" t="str">
+      <c r="L13" s="25" t="str">
         <f>IF(_screenCoke_day_hour!J9="","",_screenCoke_day_hour!J9)</f>
         <v/>
       </c>
-      <c r="M13" s="36" t="str">
+      <c r="M13" s="26" t="str">
         <f>IF(_screenCoke_day_hour!K9="","",_screenCoke_day_hour!K9)</f>
         <v/>
       </c>
-      <c r="N13" s="36" t="str">
+      <c r="N13" s="26" t="str">
         <f>IF(_screenCoke_day_hour!L9="","",_screenCoke_day_hour!L9)</f>
         <v/>
       </c>
-      <c r="O13" s="36" t="str">
+      <c r="O13" s="26" t="str">
         <f>IF(_screenCoke_day_hour!M9="","",_screenCoke_day_hour!M9)</f>
         <v/>
       </c>
-      <c r="P13" s="36" t="str">
+      <c r="P13" s="26" t="str">
         <f>IF(_screenCoke_day_hour!N9="","",_screenCoke_day_hour!N9)</f>
         <v/>
       </c>
-      <c r="Q13" s="36" t="str">
+      <c r="Q13" s="26" t="str">
         <f>IF(_screenCoke_day_hour!O9="","",_screenCoke_day_hour!O9)</f>
         <v/>
       </c>
-      <c r="R13" s="44" t="str">
+      <c r="R13" s="29" t="str">
         <f>IF(_screenCoke_day_hour!P9="","",_screenCoke_day_hour!P9)</f>
         <v/>
       </c>
-      <c r="S13" s="43" t="str">
+      <c r="S13" s="28" t="str">
         <f>IF(_screenCoke_day_hour!Q9="","",_screenCoke_day_hour!Q9)</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="21.5" customHeight="1" spans="2:19">
-      <c r="B14" s="19">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="C14" s="20" t="str">
+    <row ht="21.5" customHeight="1" r="14">
+      <c r="B14" s="24">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="C14" s="25" t="str">
         <f>IF(_screenCoke_day_hour!A10="","",_screenCoke_day_hour!A10)</f>
         <v/>
       </c>
-      <c r="D14" s="20" t="str">
+      <c r="D14" s="25" t="str">
         <f>IF(_screenCoke_day_hour!B10="","",_screenCoke_day_hour!B10)</f>
         <v/>
       </c>
-      <c r="E14" s="20" t="str">
+      <c r="E14" s="25" t="str">
         <f>IF(_screenCoke_day_hour!C10="","",_screenCoke_day_hour!C10)</f>
         <v/>
       </c>
-      <c r="F14" s="20" t="str">
+      <c r="F14" s="25" t="str">
         <f>IF(_screenCoke_day_hour!D10="","",_screenCoke_day_hour!D10)</f>
         <v/>
       </c>
-      <c r="G14" s="20" t="str">
+      <c r="G14" s="25" t="str">
         <f>IF(_screenCoke_day_hour!E10="","",_screenCoke_day_hour!E10)</f>
         <v/>
       </c>
-      <c r="H14" s="21" t="str">
+      <c r="H14" s="25" t="str">
         <f>IF(_screenCoke_day_hour!F10="","",_screenCoke_day_hour!F10)</f>
         <v/>
       </c>
-      <c r="I14" s="21" t="str">
+      <c r="I14" s="25" t="str">
         <f>IF(_screenCoke_day_hour!G10="","",_screenCoke_day_hour!G10)</f>
         <v/>
       </c>
-      <c r="J14" s="36" t="str">
+      <c r="J14" s="26" t="str">
         <f>IF(_screenCoke_day_hour!H10="","",_screenCoke_day_hour!H10)</f>
         <v/>
       </c>
-      <c r="K14" s="21" t="str">
+      <c r="K14" s="25" t="str">
         <f>IF(_screenCoke_day_hour!I10="","",_screenCoke_day_hour!I10)</f>
         <v/>
       </c>
-      <c r="L14" s="21" t="str">
+      <c r="L14" s="25" t="str">
         <f>IF(_screenCoke_day_hour!J10="","",_screenCoke_day_hour!J10)</f>
         <v/>
       </c>
-      <c r="M14" s="36" t="str">
+      <c r="M14" s="26" t="str">
         <f>IF(_screenCoke_day_hour!K10="","",_screenCoke_day_hour!K10)</f>
         <v/>
       </c>
-      <c r="N14" s="36" t="str">
+      <c r="N14" s="26" t="str">
         <f>IF(_screenCoke_day_hour!L10="","",_screenCoke_day_hour!L10)</f>
         <v/>
       </c>
-      <c r="O14" s="36" t="str">
+      <c r="O14" s="26" t="str">
         <f>IF(_screenCoke_day_hour!M10="","",_screenCoke_day_hour!M10)</f>
         <v/>
       </c>
-      <c r="P14" s="36" t="str">
+      <c r="P14" s="26" t="str">
         <f>IF(_screenCoke_day_hour!N10="","",_screenCoke_day_hour!N10)</f>
         <v/>
       </c>
-      <c r="Q14" s="36" t="str">
+      <c r="Q14" s="26" t="str">
         <f>IF(_screenCoke_day_hour!O10="","",_screenCoke_day_hour!O10)</f>
         <v/>
       </c>
-      <c r="R14" s="44" t="str">
+      <c r="R14" s="29" t="str">
         <f>IF(_screenCoke_day_hour!P10="","",_screenCoke_day_hour!P10)</f>
         <v/>
       </c>
-      <c r="S14" s="43" t="str">
+      <c r="S14" s="28" t="str">
         <f>IF(_screenCoke_day_hour!Q10="","",_screenCoke_day_hour!Q10)</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="21.5" customHeight="1" spans="2:19">
-      <c r="B15" s="19">
+    <row ht="21.5" customHeight="1" r="15">
+      <c r="B15" s="24">
         <v>0.375</v>
       </c>
-      <c r="C15" s="20" t="str">
+      <c r="C15" s="25" t="str">
         <f>IF(_screenCoke_day_hour!A11="","",_screenCoke_day_hour!A11)</f>
         <v/>
       </c>
-      <c r="D15" s="20" t="str">
+      <c r="D15" s="25" t="str">
         <f>IF(_screenCoke_day_hour!B11="","",_screenCoke_day_hour!B11)</f>
         <v/>
       </c>
-      <c r="E15" s="20" t="str">
+      <c r="E15" s="25" t="str">
         <f>IF(_screenCoke_day_hour!C11="","",_screenCoke_day_hour!C11)</f>
         <v/>
       </c>
-      <c r="F15" s="20" t="str">
+      <c r="F15" s="25" t="str">
         <f>IF(_screenCoke_day_hour!D11="","",_screenCoke_day_hour!D11)</f>
         <v/>
       </c>
-      <c r="G15" s="20" t="str">
+      <c r="G15" s="25" t="str">
         <f>IF(_screenCoke_day_hour!E11="","",_screenCoke_day_hour!E11)</f>
         <v/>
       </c>
-      <c r="H15" s="21" t="str">
+      <c r="H15" s="25" t="str">
         <f>IF(_screenCoke_day_hour!F11="","",_screenCoke_day_hour!F11)</f>
         <v/>
       </c>
-      <c r="I15" s="21" t="str">
+      <c r="I15" s="25" t="str">
         <f>IF(_screenCoke_day_hour!G11="","",_screenCoke_day_hour!G11)</f>
         <v/>
       </c>
-      <c r="J15" s="36" t="str">
+      <c r="J15" s="26" t="str">
         <f>IF(_screenCoke_day_hour!H11="","",_screenCoke_day_hour!H11)</f>
         <v/>
       </c>
-      <c r="K15" s="21" t="str">
+      <c r="K15" s="25" t="str">
         <f>IF(_screenCoke_day_hour!I11="","",_screenCoke_day_hour!I11)</f>
         <v/>
       </c>
-      <c r="L15" s="21" t="str">
+      <c r="L15" s="25" t="str">
         <f>IF(_screenCoke_day_hour!J11="","",_screenCoke_day_hour!J11)</f>
         <v/>
       </c>
-      <c r="M15" s="36" t="str">
+      <c r="M15" s="26" t="str">
         <f>IF(_screenCoke_day_hour!K11="","",_screenCoke_day_hour!K11)</f>
         <v/>
       </c>
-      <c r="N15" s="36" t="str">
+      <c r="N15" s="26" t="str">
         <f>IF(_screenCoke_day_hour!L11="","",_screenCoke_day_hour!L11)</f>
         <v/>
       </c>
-      <c r="O15" s="36" t="str">
+      <c r="O15" s="26" t="str">
         <f>IF(_screenCoke_day_hour!M11="","",_screenCoke_day_hour!M11)</f>
         <v/>
       </c>
-      <c r="P15" s="36" t="str">
+      <c r="P15" s="26" t="str">
         <f>IF(_screenCoke_day_hour!N11="","",_screenCoke_day_hour!N11)</f>
         <v/>
       </c>
-      <c r="Q15" s="36" t="str">
+      <c r="Q15" s="26" t="str">
         <f>IF(_screenCoke_day_hour!O11="","",_screenCoke_day_hour!O11)</f>
         <v/>
       </c>
-      <c r="R15" s="44" t="str">
+      <c r="R15" s="29" t="str">
         <f>IF(_screenCoke_day_hour!P11="","",_screenCoke_day_hour!P11)</f>
         <v/>
       </c>
-      <c r="S15" s="43" t="str">
+      <c r="S15" s="28" t="str">
         <f>IF(_screenCoke_day_hour!Q11="","",_screenCoke_day_hour!Q11)</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="21.5" customHeight="1" spans="2:19">
-      <c r="B16" s="19">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="C16" s="20" t="str">
+    <row ht="21.5" customHeight="1" r="16">
+      <c r="B16" s="24">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="C16" s="25" t="str">
         <f>IF(_screenCoke_day_hour!A12="","",_screenCoke_day_hour!A12)</f>
         <v/>
       </c>
-      <c r="D16" s="20" t="str">
+      <c r="D16" s="25" t="str">
         <f>IF(_screenCoke_day_hour!B12="","",_screenCoke_day_hour!B12)</f>
         <v/>
       </c>
-      <c r="E16" s="20" t="str">
+      <c r="E16" s="25" t="str">
         <f>IF(_screenCoke_day_hour!C12="","",_screenCoke_day_hour!C12)</f>
         <v/>
       </c>
-      <c r="F16" s="20" t="str">
+      <c r="F16" s="25" t="str">
         <f>IF(_screenCoke_day_hour!D12="","",_screenCoke_day_hour!D12)</f>
         <v/>
       </c>
-      <c r="G16" s="20" t="str">
+      <c r="G16" s="25" t="str">
         <f>IF(_screenCoke_day_hour!E12="","",_screenCoke_day_hour!E12)</f>
         <v/>
       </c>
-      <c r="H16" s="21" t="str">
+      <c r="H16" s="25" t="str">
         <f>IF(_screenCoke_day_hour!F12="","",_screenCoke_day_hour!F12)</f>
         <v/>
       </c>
-      <c r="I16" s="21" t="str">
+      <c r="I16" s="25" t="str">
         <f>IF(_screenCoke_day_hour!G12="","",_screenCoke_day_hour!G12)</f>
         <v/>
       </c>
-      <c r="J16" s="36" t="str">
+      <c r="J16" s="26" t="str">
         <f>IF(_screenCoke_day_hour!H12="","",_screenCoke_day_hour!H12)</f>
         <v/>
       </c>
-      <c r="K16" s="21" t="str">
+      <c r="K16" s="25" t="str">
         <f>IF(_screenCoke_day_hour!I12="","",_screenCoke_day_hour!I12)</f>
         <v/>
       </c>
-      <c r="L16" s="21" t="str">
+      <c r="L16" s="25" t="str">
         <f>IF(_screenCoke_day_hour!J12="","",_screenCoke_day_hour!J12)</f>
         <v/>
       </c>
-      <c r="M16" s="36" t="str">
+      <c r="M16" s="26" t="str">
         <f>IF(_screenCoke_day_hour!K12="","",_screenCoke_day_hour!K12)</f>
         <v/>
       </c>
-      <c r="N16" s="36" t="str">
+      <c r="N16" s="26" t="str">
         <f>IF(_screenCoke_day_hour!L12="","",_screenCoke_day_hour!L12)</f>
         <v/>
       </c>
-      <c r="O16" s="36" t="str">
+      <c r="O16" s="26" t="str">
         <f>IF(_screenCoke_day_hour!M12="","",_screenCoke_day_hour!M12)</f>
         <v/>
       </c>
-      <c r="P16" s="36" t="str">
+      <c r="P16" s="26" t="str">
         <f>IF(_screenCoke_day_hour!N12="","",_screenCoke_day_hour!N12)</f>
         <v/>
       </c>
-      <c r="Q16" s="36" t="str">
+      <c r="Q16" s="26" t="str">
         <f>IF(_screenCoke_day_hour!O12="","",_screenCoke_day_hour!O12)</f>
         <v/>
       </c>
-      <c r="R16" s="44" t="str">
+      <c r="R16" s="29" t="str">
         <f>IF(_screenCoke_day_hour!P12="","",_screenCoke_day_hour!P12)</f>
         <v/>
       </c>
-      <c r="S16" s="43" t="str">
+      <c r="S16" s="28" t="str">
         <f>IF(_screenCoke_day_hour!Q12="","",_screenCoke_day_hour!Q12)</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="21.5" customHeight="1" spans="2:19">
-      <c r="B17" s="19">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="C17" s="20" t="str">
+    <row ht="21.5" customHeight="1" r="17">
+      <c r="B17" s="24">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="C17" s="25" t="str">
         <f>IF(_screenCoke_day_hour!A13="","",_screenCoke_day_hour!A13)</f>
         <v/>
       </c>
-      <c r="D17" s="20" t="str">
+      <c r="D17" s="25" t="str">
         <f>IF(_screenCoke_day_hour!B13="","",_screenCoke_day_hour!B13)</f>
         <v/>
       </c>
-      <c r="E17" s="20" t="str">
+      <c r="E17" s="25" t="str">
         <f>IF(_screenCoke_day_hour!C13="","",_screenCoke_day_hour!C13)</f>
         <v/>
       </c>
-      <c r="F17" s="20" t="str">
+      <c r="F17" s="25" t="str">
         <f>IF(_screenCoke_day_hour!D13="","",_screenCoke_day_hour!D13)</f>
         <v/>
       </c>
-      <c r="G17" s="20" t="str">
+      <c r="G17" s="25" t="str">
         <f>IF(_screenCoke_day_hour!E13="","",_screenCoke_day_hour!E13)</f>
         <v/>
       </c>
-      <c r="H17" s="21" t="str">
+      <c r="H17" s="25" t="str">
         <f>IF(_screenCoke_day_hour!F13="","",_screenCoke_day_hour!F13)</f>
         <v/>
       </c>
-      <c r="I17" s="21" t="str">
+      <c r="I17" s="25" t="str">
         <f>IF(_screenCoke_day_hour!G13="","",_screenCoke_day_hour!G13)</f>
         <v/>
       </c>
-      <c r="J17" s="36" t="str">
+      <c r="J17" s="26" t="str">
         <f>IF(_screenCoke_day_hour!H13="","",_screenCoke_day_hour!H13)</f>
         <v/>
       </c>
-      <c r="K17" s="21" t="str">
+      <c r="K17" s="25" t="str">
         <f>IF(_screenCoke_day_hour!I13="","",_screenCoke_day_hour!I13)</f>
         <v/>
       </c>
-      <c r="L17" s="21" t="str">
+      <c r="L17" s="25" t="str">
         <f>IF(_screenCoke_day_hour!J13="","",_screenCoke_day_hour!J13)</f>
         <v/>
       </c>
-      <c r="M17" s="36" t="str">
+      <c r="M17" s="26" t="str">
         <f>IF(_screenCoke_day_hour!K13="","",_screenCoke_day_hour!K13)</f>
         <v/>
       </c>
-      <c r="N17" s="36" t="str">
+      <c r="N17" s="26" t="str">
         <f>IF(_screenCoke_day_hour!L13="","",_screenCoke_day_hour!L13)</f>
         <v/>
       </c>
-      <c r="O17" s="36" t="str">
+      <c r="O17" s="26" t="str">
         <f>IF(_screenCoke_day_hour!M13="","",_screenCoke_day_hour!M13)</f>
         <v/>
       </c>
-      <c r="P17" s="36" t="str">
+      <c r="P17" s="26" t="str">
         <f>IF(_screenCoke_day_hour!N13="","",_screenCoke_day_hour!N13)</f>
         <v/>
       </c>
-      <c r="Q17" s="36" t="str">
+      <c r="Q17" s="26" t="str">
         <f>IF(_screenCoke_day_hour!O13="","",_screenCoke_day_hour!O13)</f>
         <v/>
       </c>
-      <c r="R17" s="44" t="str">
+      <c r="R17" s="29" t="str">
         <f>IF(_screenCoke_day_hour!P13="","",_screenCoke_day_hour!P13)</f>
         <v/>
       </c>
-      <c r="S17" s="43" t="str">
+      <c r="S17" s="28" t="str">
         <f>IF(_screenCoke_day_hour!Q13="","",_screenCoke_day_hour!Q13)</f>
         <v/>
       </c>
     </row>
-    <row r="18" ht="21.5" customHeight="1" spans="2:19">
-      <c r="B18" s="19">
+    <row ht="21.5" customHeight="1" r="18">
+      <c r="B18" s="24">
         <v>0.5</v>
       </c>
-      <c r="C18" s="22" t="str">
+      <c r="C18" s="30" t="str">
         <f>IF(_screenCoke_day_hour!A14="","",_screenCoke_day_hour!A14)</f>
         <v/>
       </c>
-      <c r="D18" s="22" t="str">
+      <c r="D18" s="30" t="str">
         <f>IF(_screenCoke_day_hour!B14="","",_screenCoke_day_hour!B14)</f>
         <v/>
       </c>
-      <c r="E18" s="22" t="str">
+      <c r="E18" s="30" t="str">
         <f>IF(_screenCoke_day_hour!C14="","",_screenCoke_day_hour!C14)</f>
         <v/>
       </c>
-      <c r="F18" s="22" t="str">
+      <c r="F18" s="30" t="str">
         <f>IF(_screenCoke_day_hour!D14="","",_screenCoke_day_hour!D14)</f>
         <v/>
       </c>
-      <c r="G18" s="22" t="str">
+      <c r="G18" s="30" t="str">
         <f>IF(_screenCoke_day_hour!E14="","",_screenCoke_day_hour!E14)</f>
         <v/>
       </c>
-      <c r="H18" s="23" t="str">
+      <c r="H18" s="30" t="str">
         <f>IF(_screenCoke_day_hour!F14="","",_screenCoke_day_hour!F14)</f>
         <v/>
       </c>
-      <c r="I18" s="23" t="str">
+      <c r="I18" s="30" t="str">
         <f>IF(_screenCoke_day_hour!G14="","",_screenCoke_day_hour!G14)</f>
         <v/>
       </c>
-      <c r="J18" s="37" t="str">
+      <c r="J18" s="31" t="str">
         <f>IF(_screenCoke_day_hour!H14="","",_screenCoke_day_hour!H14)</f>
         <v/>
       </c>
-      <c r="K18" s="23" t="str">
+      <c r="K18" s="30" t="str">
         <f>IF(_screenCoke_day_hour!I14="","",_screenCoke_day_hour!I14)</f>
         <v/>
       </c>
-      <c r="L18" s="23" t="str">
+      <c r="L18" s="30" t="str">
         <f>IF(_screenCoke_day_hour!J14="","",_screenCoke_day_hour!J14)</f>
         <v/>
       </c>
-      <c r="M18" s="37" t="str">
+      <c r="M18" s="31" t="str">
         <f>IF(_screenCoke_day_hour!K14="","",_screenCoke_day_hour!K14)</f>
         <v/>
       </c>
-      <c r="N18" s="37" t="str">
+      <c r="N18" s="31" t="str">
         <f>IF(_screenCoke_day_hour!L14="","",_screenCoke_day_hour!L14)</f>
         <v/>
       </c>
-      <c r="O18" s="37" t="str">
+      <c r="O18" s="31" t="str">
         <f>IF(_screenCoke_day_hour!M14="","",_screenCoke_day_hour!M14)</f>
         <v/>
       </c>
-      <c r="P18" s="38" t="str">
+      <c r="P18" s="32" t="str">
         <f>IF(_screenCoke_day_hour!N14="","",_screenCoke_day_hour!N14)</f>
         <v/>
       </c>
-      <c r="Q18" s="38" t="str">
+      <c r="Q18" s="32" t="str">
         <f>IF(_screenCoke_day_hour!O14="","",_screenCoke_day_hour!O14)</f>
         <v/>
       </c>
-      <c r="R18" s="42" t="str">
+      <c r="R18" s="27" t="str">
         <f>IF(_screenCoke_day_hour!P14="","",_screenCoke_day_hour!P14)</f>
         <v/>
       </c>
-      <c r="S18" s="45" t="str">
+      <c r="S18" s="33" t="str">
         <f>IF(_screenCoke_day_hour!Q14="","",_screenCoke_day_hour!Q14)</f>
         <v/>
       </c>
     </row>
-    <row r="19" ht="21.5" customHeight="1" spans="2:19">
-      <c r="B19" s="19">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="C19" s="22" t="str">
+    <row ht="21.5" customHeight="1" r="19">
+      <c r="B19" s="24">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="C19" s="30" t="str">
         <f>IF(_screenCoke_day_hour!A15="","",_screenCoke_day_hour!A15)</f>
         <v/>
       </c>
-      <c r="D19" s="22" t="str">
+      <c r="D19" s="30" t="str">
         <f>IF(_screenCoke_day_hour!B15="","",_screenCoke_day_hour!B15)</f>
         <v/>
       </c>
-      <c r="E19" s="22" t="str">
+      <c r="E19" s="30" t="str">
         <f>IF(_screenCoke_day_hour!C15="","",_screenCoke_day_hour!C15)</f>
         <v/>
       </c>
-      <c r="F19" s="22" t="str">
+      <c r="F19" s="30" t="str">
         <f>IF(_screenCoke_day_hour!D15="","",_screenCoke_day_hour!D15)</f>
         <v/>
       </c>
-      <c r="G19" s="22" t="str">
+      <c r="G19" s="30" t="str">
         <f>IF(_screenCoke_day_hour!E15="","",_screenCoke_day_hour!E15)</f>
         <v/>
       </c>
-      <c r="H19" s="23" t="str">
+      <c r="H19" s="30" t="str">
         <f>IF(_screenCoke_day_hour!F15="","",_screenCoke_day_hour!F15)</f>
         <v/>
       </c>
-      <c r="I19" s="23" t="str">
+      <c r="I19" s="30" t="str">
         <f>IF(_screenCoke_day_hour!G15="","",_screenCoke_day_hour!G15)</f>
         <v/>
       </c>
-      <c r="J19" s="37" t="str">
+      <c r="J19" s="31" t="str">
         <f>IF(_screenCoke_day_hour!H15="","",_screenCoke_day_hour!H15)</f>
         <v/>
       </c>
-      <c r="K19" s="23" t="str">
+      <c r="K19" s="30" t="str">
         <f>IF(_screenCoke_day_hour!I15="","",_screenCoke_day_hour!I15)</f>
         <v/>
       </c>
-      <c r="L19" s="23" t="str">
+      <c r="L19" s="30" t="str">
         <f>IF(_screenCoke_day_hour!J15="","",_screenCoke_day_hour!J15)</f>
         <v/>
       </c>
-      <c r="M19" s="37" t="str">
+      <c r="M19" s="31" t="str">
         <f>IF(_screenCoke_day_hour!K15="","",_screenCoke_day_hour!K15)</f>
         <v/>
       </c>
-      <c r="N19" s="37" t="str">
+      <c r="N19" s="31" t="str">
         <f>IF(_screenCoke_day_hour!L15="","",_screenCoke_day_hour!L15)</f>
         <v/>
       </c>
-      <c r="O19" s="37" t="str">
+      <c r="O19" s="31" t="str">
         <f>IF(_screenCoke_day_hour!M15="","",_screenCoke_day_hour!M15)</f>
         <v/>
       </c>
-      <c r="P19" s="38" t="str">
+      <c r="P19" s="32" t="str">
         <f>IF(_screenCoke_day_hour!N15="","",_screenCoke_day_hour!N15)</f>
         <v/>
       </c>
-      <c r="Q19" s="38" t="str">
+      <c r="Q19" s="32" t="str">
         <f>IF(_screenCoke_day_hour!O15="","",_screenCoke_day_hour!O15)</f>
         <v/>
       </c>
-      <c r="R19" s="42" t="str">
+      <c r="R19" s="27" t="str">
         <f>IF(_screenCoke_day_hour!P15="","",_screenCoke_day_hour!P15)</f>
         <v/>
       </c>
-      <c r="S19" s="45" t="str">
+      <c r="S19" s="33" t="str">
         <f>IF(_screenCoke_day_hour!Q15="","",_screenCoke_day_hour!Q15)</f>
         <v/>
       </c>
     </row>
-    <row r="20" ht="21.5" customHeight="1" spans="2:19">
-      <c r="B20" s="19">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="C20" s="22" t="str">
+    <row ht="21.5" customHeight="1" r="20">
+      <c r="B20" s="24">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="C20" s="30" t="str">
         <f>IF(_screenCoke_day_hour!A16="","",_screenCoke_day_hour!A16)</f>
         <v/>
       </c>
-      <c r="D20" s="22" t="str">
+      <c r="D20" s="30" t="str">
         <f>IF(_screenCoke_day_hour!B16="","",_screenCoke_day_hour!B16)</f>
         <v/>
       </c>
-      <c r="E20" s="22" t="str">
+      <c r="E20" s="30" t="str">
         <f>IF(_screenCoke_day_hour!C16="","",_screenCoke_day_hour!C16)</f>
         <v/>
       </c>
-      <c r="F20" s="22" t="str">
+      <c r="F20" s="30" t="str">
         <f>IF(_screenCoke_day_hour!D16="","",_screenCoke_day_hour!D16)</f>
         <v/>
       </c>
-      <c r="G20" s="22" t="str">
+      <c r="G20" s="30" t="str">
         <f>IF(_screenCoke_day_hour!E16="","",_screenCoke_day_hour!E16)</f>
         <v/>
       </c>
-      <c r="H20" s="23" t="str">
+      <c r="H20" s="30" t="str">
         <f>IF(_screenCoke_day_hour!F16="","",_screenCoke_day_hour!F16)</f>
         <v/>
       </c>
-      <c r="I20" s="23" t="str">
+      <c r="I20" s="30" t="str">
         <f>IF(_screenCoke_day_hour!G16="","",_screenCoke_day_hour!G16)</f>
         <v/>
       </c>
-      <c r="J20" s="37" t="str">
+      <c r="J20" s="31" t="str">
         <f>IF(_screenCoke_day_hour!H16="","",_screenCoke_day_hour!H16)</f>
         <v/>
       </c>
-      <c r="K20" s="23" t="str">
+      <c r="K20" s="30" t="str">
         <f>IF(_screenCoke_day_hour!I16="","",_screenCoke_day_hour!I16)</f>
         <v/>
       </c>
-      <c r="L20" s="23" t="str">
+      <c r="L20" s="30" t="str">
         <f>IF(_screenCoke_day_hour!J16="","",_screenCoke_day_hour!J16)</f>
         <v/>
       </c>
-      <c r="M20" s="37" t="str">
+      <c r="M20" s="31" t="str">
         <f>IF(_screenCoke_day_hour!K16="","",_screenCoke_day_hour!K16)</f>
         <v/>
       </c>
-      <c r="N20" s="37" t="str">
+      <c r="N20" s="31" t="str">
         <f>IF(_screenCoke_day_hour!L16="","",_screenCoke_day_hour!L16)</f>
         <v/>
       </c>
-      <c r="O20" s="37" t="str">
+      <c r="O20" s="31" t="str">
         <f>IF(_screenCoke_day_hour!M16="","",_screenCoke_day_hour!M16)</f>
         <v/>
       </c>
-      <c r="P20" s="38" t="str">
+      <c r="P20" s="32" t="str">
         <f>IF(_screenCoke_day_hour!N16="","",_screenCoke_day_hour!N16)</f>
         <v/>
       </c>
-      <c r="Q20" s="38" t="str">
+      <c r="Q20" s="32" t="str">
         <f>IF(_screenCoke_day_hour!O16="","",_screenCoke_day_hour!O16)</f>
         <v/>
       </c>
-      <c r="R20" s="42" t="str">
+      <c r="R20" s="27" t="str">
         <f>IF(_screenCoke_day_hour!P16="","",_screenCoke_day_hour!P16)</f>
         <v/>
       </c>
-      <c r="S20" s="45" t="str">
+      <c r="S20" s="33" t="str">
         <f>IF(_screenCoke_day_hour!Q16="","",_screenCoke_day_hour!Q16)</f>
         <v/>
       </c>
     </row>
-    <row r="21" ht="21.5" customHeight="1" spans="2:19">
-      <c r="B21" s="19">
+    <row ht="21.5" customHeight="1" r="21">
+      <c r="B21" s="24">
         <v>0.625</v>
       </c>
-      <c r="C21" s="22" t="str">
+      <c r="C21" s="30" t="str">
         <f>IF(_screenCoke_day_hour!A17="","",_screenCoke_day_hour!A17)</f>
         <v/>
       </c>
-      <c r="D21" s="22" t="str">
+      <c r="D21" s="30" t="str">
         <f>IF(_screenCoke_day_hour!B17="","",_screenCoke_day_hour!B17)</f>
         <v/>
       </c>
-      <c r="E21" s="22" t="str">
+      <c r="E21" s="30" t="str">
         <f>IF(_screenCoke_day_hour!C17="","",_screenCoke_day_hour!C17)</f>
         <v/>
       </c>
-      <c r="F21" s="22" t="str">
+      <c r="F21" s="30" t="str">
         <f>IF(_screenCoke_day_hour!D17="","",_screenCoke_day_hour!D17)</f>
         <v/>
       </c>
-      <c r="G21" s="22" t="str">
+      <c r="G21" s="30" t="str">
         <f>IF(_screenCoke_day_hour!E17="","",_screenCoke_day_hour!E17)</f>
         <v/>
       </c>
-      <c r="H21" s="23" t="str">
+      <c r="H21" s="30" t="str">
         <f>IF(_screenCoke_day_hour!F17="","",_screenCoke_day_hour!F17)</f>
         <v/>
       </c>
-      <c r="I21" s="23" t="str">
+      <c r="I21" s="30" t="str">
         <f>IF(_screenCoke_day_hour!G17="","",_screenCoke_day_hour!G17)</f>
         <v/>
       </c>
-      <c r="J21" s="37" t="str">
+      <c r="J21" s="31" t="str">
         <f>IF(_screenCoke_day_hour!H17="","",_screenCoke_day_hour!H17)</f>
         <v/>
       </c>
-      <c r="K21" s="23" t="str">
+      <c r="K21" s="30" t="str">
         <f>IF(_screenCoke_day_hour!I17="","",_screenCoke_day_hour!I17)</f>
         <v/>
       </c>
-      <c r="L21" s="23" t="str">
+      <c r="L21" s="30" t="str">
         <f>IF(_screenCoke_day_hour!J17="","",_screenCoke_day_hour!J17)</f>
         <v/>
       </c>
-      <c r="M21" s="37" t="str">
+      <c r="M21" s="31" t="str">
         <f>IF(_screenCoke_day_hour!K17="","",_screenCoke_day_hour!K17)</f>
         <v/>
       </c>
-      <c r="N21" s="37" t="str">
+      <c r="N21" s="31" t="str">
         <f>IF(_screenCoke_day_hour!L17="","",_screenCoke_day_hour!L17)</f>
         <v/>
       </c>
-      <c r="O21" s="37" t="str">
+      <c r="O21" s="31" t="str">
         <f>IF(_screenCoke_day_hour!M17="","",_screenCoke_day_hour!M17)</f>
         <v/>
       </c>
-      <c r="P21" s="38" t="str">
+      <c r="P21" s="32" t="str">
         <f>IF(_screenCoke_day_hour!N17="","",_screenCoke_day_hour!N17)</f>
         <v/>
       </c>
-      <c r="Q21" s="38" t="str">
+      <c r="Q21" s="32" t="str">
         <f>IF(_screenCoke_day_hour!O17="","",_screenCoke_day_hour!O17)</f>
         <v/>
       </c>
-      <c r="R21" s="42" t="str">
+      <c r="R21" s="27" t="str">
         <f>IF(_screenCoke_day_hour!P17="","",_screenCoke_day_hour!P17)</f>
         <v/>
       </c>
-      <c r="S21" s="45" t="str">
+      <c r="S21" s="33" t="str">
         <f>IF(_screenCoke_day_hour!Q17="","",_screenCoke_day_hour!Q17)</f>
         <v/>
       </c>
     </row>
-    <row r="22" ht="21.5" customHeight="1" spans="2:19">
-      <c r="B22" s="19">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="C22" s="22" t="str">
+    <row ht="21.5" customHeight="1" r="22">
+      <c r="B22" s="24">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="C22" s="30" t="str">
         <f>IF(_screenCoke_day_hour!A18="","",_screenCoke_day_hour!A18)</f>
         <v/>
       </c>
-      <c r="D22" s="22" t="str">
+      <c r="D22" s="30" t="str">
         <f>IF(_screenCoke_day_hour!B18="","",_screenCoke_day_hour!B18)</f>
         <v/>
       </c>
-      <c r="E22" s="22" t="str">
+      <c r="E22" s="30" t="str">
         <f>IF(_screenCoke_day_hour!C18="","",_screenCoke_day_hour!C18)</f>
         <v/>
       </c>
-      <c r="F22" s="22" t="str">
+      <c r="F22" s="30" t="str">
         <f>IF(_screenCoke_day_hour!D18="","",_screenCoke_day_hour!D18)</f>
         <v/>
       </c>
-      <c r="G22" s="22" t="str">
+      <c r="G22" s="30" t="str">
         <f>IF(_screenCoke_day_hour!E18="","",_screenCoke_day_hour!E18)</f>
         <v/>
       </c>
-      <c r="H22" s="23" t="str">
+      <c r="H22" s="30" t="str">
         <f>IF(_screenCoke_day_hour!F18="","",_screenCoke_day_hour!F18)</f>
         <v/>
       </c>
-      <c r="I22" s="23" t="str">
+      <c r="I22" s="30" t="str">
         <f>IF(_screenCoke_day_hour!G18="","",_screenCoke_day_hour!G18)</f>
         <v/>
       </c>
-      <c r="J22" s="37" t="str">
+      <c r="J22" s="31" t="str">
         <f>IF(_screenCoke_day_hour!H18="","",_screenCoke_day_hour!H18)</f>
         <v/>
       </c>
-      <c r="K22" s="23" t="str">
+      <c r="K22" s="30" t="str">
         <f>IF(_screenCoke_day_hour!I18="","",_screenCoke_day_hour!I18)</f>
         <v/>
       </c>
-      <c r="L22" s="23" t="str">
+      <c r="L22" s="30" t="str">
         <f>IF(_screenCoke_day_hour!J18="","",_screenCoke_day_hour!J18)</f>
         <v/>
       </c>
-      <c r="M22" s="37" t="str">
+      <c r="M22" s="31" t="str">
         <f>IF(_screenCoke_day_hour!K18="","",_screenCoke_day_hour!K18)</f>
         <v/>
       </c>
-      <c r="N22" s="37" t="str">
+      <c r="N22" s="31" t="str">
         <f>IF(_screenCoke_day_hour!L18="","",_screenCoke_day_hour!L18)</f>
         <v/>
       </c>
-      <c r="O22" s="37" t="str">
+      <c r="O22" s="31" t="str">
         <f>IF(_screenCoke_day_hour!M18="","",_screenCoke_day_hour!M18)</f>
         <v/>
       </c>
-      <c r="P22" s="38" t="str">
+      <c r="P22" s="32" t="str">
         <f>IF(_screenCoke_day_hour!N18="","",_screenCoke_day_hour!N18)</f>
         <v/>
       </c>
-      <c r="Q22" s="38" t="str">
+      <c r="Q22" s="32" t="str">
         <f>IF(_screenCoke_day_hour!O18="","",_screenCoke_day_hour!O18)</f>
         <v/>
       </c>
-      <c r="R22" s="42" t="str">
+      <c r="R22" s="27" t="str">
         <f>IF(_screenCoke_day_hour!P18="","",_screenCoke_day_hour!P18)</f>
         <v/>
       </c>
-      <c r="S22" s="45" t="str">
+      <c r="S22" s="33" t="str">
         <f>IF(_screenCoke_day_hour!Q18="","",_screenCoke_day_hour!Q18)</f>
         <v/>
       </c>
     </row>
-    <row r="23" ht="21.5" customHeight="1" spans="2:19">
-      <c r="B23" s="19">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="C23" s="22" t="str">
+    <row ht="21.5" customHeight="1" r="23">
+      <c r="B23" s="24">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="C23" s="30" t="str">
         <f>IF(_screenCoke_day_hour!A19="","",_screenCoke_day_hour!A19)</f>
         <v/>
       </c>
-      <c r="D23" s="22" t="str">
+      <c r="D23" s="30" t="str">
         <f>IF(_screenCoke_day_hour!B19="","",_screenCoke_day_hour!B19)</f>
         <v/>
       </c>
-      <c r="E23" s="22" t="str">
+      <c r="E23" s="30" t="str">
         <f>IF(_screenCoke_day_hour!C19="","",_screenCoke_day_hour!C19)</f>
         <v/>
       </c>
-      <c r="F23" s="22" t="str">
+      <c r="F23" s="30" t="str">
         <f>IF(_screenCoke_day_hour!D19="","",_screenCoke_day_hour!D19)</f>
         <v/>
       </c>
-      <c r="G23" s="22" t="str">
+      <c r="G23" s="30" t="str">
         <f>IF(_screenCoke_day_hour!E19="","",_screenCoke_day_hour!E19)</f>
         <v/>
       </c>
-      <c r="H23" s="23" t="str">
+      <c r="H23" s="30" t="str">
         <f>IF(_screenCoke_day_hour!F19="","",_screenCoke_day_hour!F19)</f>
         <v/>
       </c>
-      <c r="I23" s="23" t="str">
+      <c r="I23" s="30" t="str">
         <f>IF(_screenCoke_day_hour!G19="","",_screenCoke_day_hour!G19)</f>
         <v/>
       </c>
-      <c r="J23" s="37" t="str">
+      <c r="J23" s="31" t="str">
         <f>IF(_screenCoke_day_hour!H19="","",_screenCoke_day_hour!H19)</f>
         <v/>
       </c>
-      <c r="K23" s="23" t="str">
+      <c r="K23" s="30" t="str">
         <f>IF(_screenCoke_day_hour!I19="","",_screenCoke_day_hour!I19)</f>
         <v/>
       </c>
-      <c r="L23" s="23" t="str">
+      <c r="L23" s="30" t="str">
         <f>IF(_screenCoke_day_hour!J19="","",_screenCoke_day_hour!J19)</f>
         <v/>
       </c>
-      <c r="M23" s="37" t="str">
+      <c r="M23" s="31" t="str">
         <f>IF(_screenCoke_day_hour!K19="","",_screenCoke_day_hour!K19)</f>
         <v/>
       </c>
-      <c r="N23" s="37" t="str">
+      <c r="N23" s="31" t="str">
         <f>IF(_screenCoke_day_hour!L19="","",_screenCoke_day_hour!L19)</f>
         <v/>
       </c>
-      <c r="O23" s="37" t="str">
+      <c r="O23" s="31" t="str">
         <f>IF(_screenCoke_day_hour!M19="","",_screenCoke_day_hour!M19)</f>
         <v/>
       </c>
-      <c r="P23" s="38" t="str">
+      <c r="P23" s="32" t="str">
         <f>IF(_screenCoke_day_hour!N19="","",_screenCoke_day_hour!N19)</f>
         <v/>
       </c>
-      <c r="Q23" s="38" t="str">
+      <c r="Q23" s="32" t="str">
         <f>IF(_screenCoke_day_hour!O19="","",_screenCoke_day_hour!O19)</f>
         <v/>
       </c>
-      <c r="R23" s="42" t="str">
+      <c r="R23" s="27" t="str">
         <f>IF(_screenCoke_day_hour!P19="","",_screenCoke_day_hour!P19)</f>
         <v/>
       </c>
-      <c r="S23" s="45" t="str">
+      <c r="S23" s="33" t="str">
         <f>IF(_screenCoke_day_hour!Q19="","",_screenCoke_day_hour!Q19)</f>
         <v/>
       </c>
     </row>
-    <row r="24" ht="21.5" customHeight="1" spans="2:19">
-      <c r="B24" s="19">
+    <row ht="21.5" customHeight="1" r="24">
+      <c r="B24" s="24">
         <v>0.75</v>
       </c>
-      <c r="C24" s="22" t="str">
+      <c r="C24" s="30" t="str">
         <f>IF(_screenCoke_day_hour!A20="","",_screenCoke_day_hour!A20)</f>
         <v/>
       </c>
-      <c r="D24" s="22" t="str">
+      <c r="D24" s="30" t="str">
         <f>IF(_screenCoke_day_hour!B20="","",_screenCoke_day_hour!B20)</f>
         <v/>
       </c>
-      <c r="E24" s="22" t="str">
+      <c r="E24" s="30" t="str">
         <f>IF(_screenCoke_day_hour!C20="","",_screenCoke_day_hour!C20)</f>
         <v/>
       </c>
-      <c r="F24" s="22" t="str">
+      <c r="F24" s="30" t="str">
         <f>IF(_screenCoke_day_hour!D20="","",_screenCoke_day_hour!D20)</f>
         <v/>
       </c>
-      <c r="G24" s="22" t="str">
+      <c r="G24" s="30" t="str">
         <f>IF(_screenCoke_day_hour!E20="","",_screenCoke_day_hour!E20)</f>
         <v/>
       </c>
-      <c r="H24" s="23" t="str">
+      <c r="H24" s="30" t="str">
         <f>IF(_screenCoke_day_hour!F20="","",_screenCoke_day_hour!F20)</f>
         <v/>
       </c>
-      <c r="I24" s="23" t="str">
+      <c r="I24" s="30" t="str">
         <f>IF(_screenCoke_day_hour!G20="","",_screenCoke_day_hour!G20)</f>
         <v/>
       </c>
-      <c r="J24" s="37" t="str">
+      <c r="J24" s="31" t="str">
         <f>IF(_screenCoke_day_hour!H20="","",_screenCoke_day_hour!H20)</f>
         <v/>
       </c>
-      <c r="K24" s="23" t="str">
+      <c r="K24" s="30" t="str">
         <f>IF(_screenCoke_day_hour!I20="","",_screenCoke_day_hour!I20)</f>
         <v/>
       </c>
-      <c r="L24" s="23" t="str">
+      <c r="L24" s="30" t="str">
         <f>IF(_screenCoke_day_hour!J20="","",_screenCoke_day_hour!J20)</f>
         <v/>
       </c>
-      <c r="M24" s="37" t="str">
+      <c r="M24" s="31" t="str">
         <f>IF(_screenCoke_day_hour!K20="","",_screenCoke_day_hour!K20)</f>
         <v/>
       </c>
-      <c r="N24" s="37" t="str">
+      <c r="N24" s="31" t="str">
         <f>IF(_screenCoke_day_hour!L20="","",_screenCoke_day_hour!L20)</f>
         <v/>
       </c>
-      <c r="O24" s="37" t="str">
+      <c r="O24" s="31" t="str">
         <f>IF(_screenCoke_day_hour!M20="","",_screenCoke_day_hour!M20)</f>
         <v/>
       </c>
-      <c r="P24" s="38" t="str">
+      <c r="P24" s="32" t="str">
         <f>IF(_screenCoke_day_hour!N20="","",_screenCoke_day_hour!N20)</f>
         <v/>
       </c>
-      <c r="Q24" s="38" t="str">
+      <c r="Q24" s="32" t="str">
         <f>IF(_screenCoke_day_hour!O20="","",_screenCoke_day_hour!O20)</f>
         <v/>
       </c>
-      <c r="R24" s="42" t="str">
+      <c r="R24" s="27" t="str">
         <f>IF(_screenCoke_day_hour!P20="","",_screenCoke_day_hour!P20)</f>
         <v/>
       </c>
-      <c r="S24" s="45" t="str">
+      <c r="S24" s="33" t="str">
         <f>IF(_screenCoke_day_hour!Q20="","",_screenCoke_day_hour!Q20)</f>
         <v/>
       </c>
     </row>
-    <row r="25" ht="21.5" customHeight="1" spans="2:19">
-      <c r="B25" s="19">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="C25" s="22" t="str">
+    <row ht="21.5" customHeight="1" r="25">
+      <c r="B25" s="24">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="C25" s="30" t="str">
         <f>IF(_screenCoke_day_hour!A21="","",_screenCoke_day_hour!A21)</f>
         <v/>
       </c>
-      <c r="D25" s="22" t="str">
+      <c r="D25" s="30" t="str">
         <f>IF(_screenCoke_day_hour!B21="","",_screenCoke_day_hour!B21)</f>
         <v/>
       </c>
-      <c r="E25" s="22" t="str">
+      <c r="E25" s="30" t="str">
         <f>IF(_screenCoke_day_hour!C21="","",_screenCoke_day_hour!C21)</f>
         <v/>
       </c>
-      <c r="F25" s="22" t="str">
+      <c r="F25" s="30" t="str">
         <f>IF(_screenCoke_day_hour!D21="","",_screenCoke_day_hour!D21)</f>
         <v/>
       </c>
-      <c r="G25" s="22" t="str">
+      <c r="G25" s="30" t="str">
         <f>IF(_screenCoke_day_hour!E21="","",_screenCoke_day_hour!E21)</f>
         <v/>
       </c>
-      <c r="H25" s="23" t="str">
+      <c r="H25" s="30" t="str">
         <f>IF(_screenCoke_day_hour!F21="","",_screenCoke_day_hour!F21)</f>
         <v/>
       </c>
-      <c r="I25" s="23" t="str">
+      <c r="I25" s="30" t="str">
         <f>IF(_screenCoke_day_hour!G21="","",_screenCoke_day_hour!G21)</f>
         <v/>
       </c>
-      <c r="J25" s="37" t="str">
+      <c r="J25" s="31" t="str">
         <f>IF(_screenCoke_day_hour!H21="","",_screenCoke_day_hour!H21)</f>
         <v/>
       </c>
-      <c r="K25" s="23" t="str">
+      <c r="K25" s="30" t="str">
         <f>IF(_screenCoke_day_hour!I21="","",_screenCoke_day_hour!I21)</f>
         <v/>
       </c>
-      <c r="L25" s="23" t="str">
+      <c r="L25" s="30" t="str">
         <f>IF(_screenCoke_day_hour!J21="","",_screenCoke_day_hour!J21)</f>
         <v/>
       </c>
-      <c r="M25" s="37" t="str">
+      <c r="M25" s="31" t="str">
         <f>IF(_screenCoke_day_hour!K21="","",_screenCoke_day_hour!K21)</f>
         <v/>
       </c>
-      <c r="N25" s="37" t="str">
+      <c r="N25" s="31" t="str">
         <f>IF(_screenCoke_day_hour!L21="","",_screenCoke_day_hour!L21)</f>
         <v/>
       </c>
-      <c r="O25" s="37" t="str">
+      <c r="O25" s="31" t="str">
         <f>IF(_screenCoke_day_hour!M21="","",_screenCoke_day_hour!M21)</f>
         <v/>
       </c>
-      <c r="P25" s="38" t="str">
+      <c r="P25" s="32" t="str">
         <f>IF(_screenCoke_day_hour!N21="","",_screenCoke_day_hour!N21)</f>
         <v/>
       </c>
-      <c r="Q25" s="38" t="str">
+      <c r="Q25" s="32" t="str">
         <f>IF(_screenCoke_day_hour!O21="","",_screenCoke_day_hour!O21)</f>
         <v/>
       </c>
-      <c r="R25" s="42" t="str">
+      <c r="R25" s="27" t="str">
         <f>IF(_screenCoke_day_hour!P21="","",_screenCoke_day_hour!P21)</f>
         <v/>
       </c>
-      <c r="S25" s="45" t="str">
+      <c r="S25" s="33" t="str">
         <f>IF(_screenCoke_day_hour!Q21="","",_screenCoke_day_hour!Q21)</f>
         <v/>
       </c>
     </row>
-    <row r="26" ht="21.5" customHeight="1" spans="2:19">
-      <c r="B26" s="19">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C26" s="22" t="str">
+    <row ht="21.5" customHeight="1" r="26">
+      <c r="B26" s="24">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="C26" s="30" t="str">
         <f>IF(_screenCoke_day_hour!A22="","",_screenCoke_day_hour!A22)</f>
         <v/>
       </c>
-      <c r="D26" s="22" t="str">
+      <c r="D26" s="30" t="str">
         <f>IF(_screenCoke_day_hour!B22="","",_screenCoke_day_hour!B22)</f>
         <v/>
       </c>
-      <c r="E26" s="22" t="str">
+      <c r="E26" s="30" t="str">
         <f>IF(_screenCoke_day_hour!C22="","",_screenCoke_day_hour!C22)</f>
         <v/>
       </c>
-      <c r="F26" s="22" t="str">
+      <c r="F26" s="30" t="str">
         <f>IF(_screenCoke_day_hour!D22="","",_screenCoke_day_hour!D22)</f>
         <v/>
       </c>
-      <c r="G26" s="22" t="str">
+      <c r="G26" s="30" t="str">
         <f>IF(_screenCoke_day_hour!E22="","",_screenCoke_day_hour!E22)</f>
         <v/>
       </c>
-      <c r="H26" s="23" t="str">
+      <c r="H26" s="30" t="str">
         <f>IF(_screenCoke_day_hour!F22="","",_screenCoke_day_hour!F22)</f>
         <v/>
       </c>
-      <c r="I26" s="23" t="str">
+      <c r="I26" s="30" t="str">
         <f>IF(_screenCoke_day_hour!G22="","",_screenCoke_day_hour!G22)</f>
         <v/>
       </c>
-      <c r="J26" s="37" t="str">
+      <c r="J26" s="31" t="str">
         <f>IF(_screenCoke_day_hour!H22="","",_screenCoke_day_hour!H22)</f>
         <v/>
       </c>
-      <c r="K26" s="23" t="str">
+      <c r="K26" s="30" t="str">
         <f>IF(_screenCoke_day_hour!I22="","",_screenCoke_day_hour!I22)</f>
         <v/>
       </c>
-      <c r="L26" s="23" t="str">
+      <c r="L26" s="30" t="str">
         <f>IF(_screenCoke_day_hour!J22="","",_screenCoke_day_hour!J22)</f>
         <v/>
       </c>
-      <c r="M26" s="37" t="str">
+      <c r="M26" s="31" t="str">
         <f>IF(_screenCoke_day_hour!K22="","",_screenCoke_day_hour!K22)</f>
         <v/>
       </c>
-      <c r="N26" s="37" t="str">
+      <c r="N26" s="31" t="str">
         <f>IF(_screenCoke_day_hour!L22="","",_screenCoke_day_hour!L22)</f>
         <v/>
       </c>
-      <c r="O26" s="37" t="str">
+      <c r="O26" s="31" t="str">
         <f>IF(_screenCoke_day_hour!M22="","",_screenCoke_day_hour!M22)</f>
         <v/>
       </c>
-      <c r="P26" s="38" t="str">
+      <c r="P26" s="32" t="str">
         <f>IF(_screenCoke_day_hour!N22="","",_screenCoke_day_hour!N22)</f>
         <v/>
       </c>
-      <c r="Q26" s="38" t="str">
+      <c r="Q26" s="32" t="str">
         <f>IF(_screenCoke_day_hour!O22="","",_screenCoke_day_hour!O22)</f>
         <v/>
       </c>
-      <c r="R26" s="42" t="str">
+      <c r="R26" s="27" t="str">
         <f>IF(_screenCoke_day_hour!P22="","",_screenCoke_day_hour!P22)</f>
         <v/>
       </c>
-      <c r="S26" s="45" t="str">
+      <c r="S26" s="33" t="str">
         <f>IF(_screenCoke_day_hour!Q22="","",_screenCoke_day_hour!Q22)</f>
         <v/>
       </c>
     </row>
-    <row r="27" ht="21.5" customHeight="1" spans="2:19">
-      <c r="B27" s="19">
+    <row ht="21.5" customHeight="1" r="27">
+      <c r="B27" s="24">
         <v>0.875</v>
       </c>
-      <c r="C27" s="22" t="str">
+      <c r="C27" s="30" t="str">
         <f>IF(_screenCoke_day_hour!A23="","",_screenCoke_day_hour!A23)</f>
         <v/>
       </c>
-      <c r="D27" s="22" t="str">
+      <c r="D27" s="30" t="str">
         <f>IF(_screenCoke_day_hour!B23="","",_screenCoke_day_hour!B23)</f>
         <v/>
       </c>
-      <c r="E27" s="22" t="str">
+      <c r="E27" s="30" t="str">
         <f>IF(_screenCoke_day_hour!C23="","",_screenCoke_day_hour!C23)</f>
         <v/>
       </c>
-      <c r="F27" s="22" t="str">
+      <c r="F27" s="30" t="str">
         <f>IF(_screenCoke_day_hour!D23="","",_screenCoke_day_hour!D23)</f>
         <v/>
       </c>
-      <c r="G27" s="22" t="str">
+      <c r="G27" s="30" t="str">
         <f>IF(_screenCoke_day_hour!E23="","",_screenCoke_day_hour!E23)</f>
         <v/>
       </c>
-      <c r="H27" s="23" t="str">
+      <c r="H27" s="30" t="str">
         <f>IF(_screenCoke_day_hour!F23="","",_screenCoke_day_hour!F23)</f>
         <v/>
       </c>
-      <c r="I27" s="23" t="str">
+      <c r="I27" s="30" t="str">
         <f>IF(_screenCoke_day_hour!G23="","",_screenCoke_day_hour!G23)</f>
         <v/>
       </c>
-      <c r="J27" s="37" t="str">
+      <c r="J27" s="31" t="str">
         <f>IF(_screenCoke_day_hour!H23="","",_screenCoke_day_hour!H23)</f>
         <v/>
       </c>
-      <c r="K27" s="23" t="str">
+      <c r="K27" s="30" t="str">
         <f>IF(_screenCoke_day_hour!I23="","",_screenCoke_day_hour!I23)</f>
         <v/>
       </c>
-      <c r="L27" s="23" t="str">
+      <c r="L27" s="30" t="str">
         <f>IF(_screenCoke_day_hour!J23="","",_screenCoke_day_hour!J23)</f>
         <v/>
       </c>
-      <c r="M27" s="37" t="str">
+      <c r="M27" s="31" t="str">
         <f>IF(_screenCoke_day_hour!K23="","",_screenCoke_day_hour!K23)</f>
         <v/>
       </c>
-      <c r="N27" s="37" t="str">
+      <c r="N27" s="31" t="str">
         <f>IF(_screenCoke_day_hour!L23="","",_screenCoke_day_hour!L23)</f>
         <v/>
       </c>
-      <c r="O27" s="37" t="str">
+      <c r="O27" s="31" t="str">
         <f>IF(_screenCoke_day_hour!M23="","",_screenCoke_day_hour!M23)</f>
         <v/>
       </c>
-      <c r="P27" s="38" t="str">
+      <c r="P27" s="32" t="str">
         <f>IF(_screenCoke_day_hour!N23="","",_screenCoke_day_hour!N23)</f>
         <v/>
       </c>
-      <c r="Q27" s="38" t="str">
+      <c r="Q27" s="32" t="str">
         <f>IF(_screenCoke_day_hour!O23="","",_screenCoke_day_hour!O23)</f>
         <v/>
       </c>
-      <c r="R27" s="42" t="str">
+      <c r="R27" s="27" t="str">
         <f>IF(_screenCoke_day_hour!P23="","",_screenCoke_day_hour!P23)</f>
         <v/>
       </c>
-      <c r="S27" s="45" t="str">
+      <c r="S27" s="33" t="str">
         <f>IF(_screenCoke_day_hour!Q23="","",_screenCoke_day_hour!Q23)</f>
         <v/>
       </c>
     </row>
-    <row r="28" ht="21.5" customHeight="1" spans="2:19">
-      <c r="B28" s="19">
-        <v>0.916666666666667</v>
-      </c>
-      <c r="C28" s="22" t="str">
+    <row ht="21.5" customHeight="1" r="28">
+      <c r="B28" s="24">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="C28" s="30" t="str">
         <f>IF(_screenCoke_day_hour!A24="","",_screenCoke_day_hour!A24)</f>
         <v/>
       </c>
-      <c r="D28" s="22" t="str">
+      <c r="D28" s="30" t="str">
         <f>IF(_screenCoke_day_hour!B24="","",_screenCoke_day_hour!B24)</f>
         <v/>
       </c>
-      <c r="E28" s="22" t="str">
+      <c r="E28" s="30" t="str">
         <f>IF(_screenCoke_day_hour!C24="","",_screenCoke_day_hour!C24)</f>
         <v/>
       </c>
-      <c r="F28" s="22" t="str">
+      <c r="F28" s="30" t="str">
         <f>IF(_screenCoke_day_hour!D24="","",_screenCoke_day_hour!D24)</f>
         <v/>
       </c>
-      <c r="G28" s="22" t="str">
+      <c r="G28" s="30" t="str">
         <f>IF(_screenCoke_day_hour!E24="","",_screenCoke_day_hour!E24)</f>
         <v/>
       </c>
-      <c r="H28" s="23" t="str">
+      <c r="H28" s="30" t="str">
         <f>IF(_screenCoke_day_hour!F24="","",_screenCoke_day_hour!F24)</f>
         <v/>
       </c>
-      <c r="I28" s="23" t="str">
+      <c r="I28" s="30" t="str">
         <f>IF(_screenCoke_day_hour!G24="","",_screenCoke_day_hour!G24)</f>
         <v/>
       </c>
-      <c r="J28" s="37" t="str">
+      <c r="J28" s="31" t="str">
         <f>IF(_screenCoke_day_hour!H24="","",_screenCoke_day_hour!H24)</f>
         <v/>
       </c>
-      <c r="K28" s="23" t="str">
+      <c r="K28" s="30" t="str">
         <f>IF(_screenCoke_day_hour!I24="","",_screenCoke_day_hour!I24)</f>
         <v/>
       </c>
-      <c r="L28" s="23" t="str">
+      <c r="L28" s="30" t="str">
         <f>IF(_screenCoke_day_hour!J24="","",_screenCoke_day_hour!J24)</f>
         <v/>
       </c>
-      <c r="M28" s="37" t="str">
+      <c r="M28" s="31" t="str">
         <f>IF(_screenCoke_day_hour!K24="","",_screenCoke_day_hour!K24)</f>
         <v/>
       </c>
-      <c r="N28" s="37" t="str">
+      <c r="N28" s="31" t="str">
         <f>IF(_screenCoke_day_hour!L24="","",_screenCoke_day_hour!L24)</f>
         <v/>
       </c>
-      <c r="O28" s="37" t="str">
+      <c r="O28" s="31" t="str">
         <f>IF(_screenCoke_day_hour!M24="","",_screenCoke_day_hour!M24)</f>
         <v/>
       </c>
-      <c r="P28" s="38" t="str">
+      <c r="P28" s="32" t="str">
         <f>IF(_screenCoke_day_hour!N24="","",_screenCoke_day_hour!N24)</f>
         <v/>
       </c>
-      <c r="Q28" s="38" t="str">
+      <c r="Q28" s="32" t="str">
         <f>IF(_screenCoke_day_hour!O24="","",_screenCoke_day_hour!O24)</f>
         <v/>
       </c>
-      <c r="R28" s="42" t="str">
+      <c r="R28" s="27" t="str">
         <f>IF(_screenCoke_day_hour!P24="","",_screenCoke_day_hour!P24)</f>
         <v/>
       </c>
-      <c r="S28" s="45" t="str">
+      <c r="S28" s="33" t="str">
         <f>IF(_screenCoke_day_hour!Q24="","",_screenCoke_day_hour!Q24)</f>
         <v/>
       </c>
     </row>
-    <row r="29" ht="21.5" customHeight="1" spans="2:19">
-      <c r="B29" s="19">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="C29" s="22" t="str">
+    <row ht="21.5" customHeight="1" r="29">
+      <c r="B29" s="24">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="C29" s="30" t="str">
         <f>IF(_screenCoke_day_hour!A25="","",_screenCoke_day_hour!A25)</f>
         <v/>
       </c>
-      <c r="D29" s="22" t="str">
+      <c r="D29" s="30" t="str">
         <f>IF(_screenCoke_day_hour!B25="","",_screenCoke_day_hour!B25)</f>
         <v/>
       </c>
-      <c r="E29" s="22" t="str">
+      <c r="E29" s="30" t="str">
         <f>IF(_screenCoke_day_hour!C25="","",_screenCoke_day_hour!C25)</f>
         <v/>
       </c>
-      <c r="F29" s="22" t="str">
+      <c r="F29" s="30" t="str">
         <f>IF(_screenCoke_day_hour!D25="","",_screenCoke_day_hour!D25)</f>
         <v/>
       </c>
-      <c r="G29" s="22" t="str">
+      <c r="G29" s="30" t="str">
         <f>IF(_screenCoke_day_hour!E25="","",_screenCoke_day_hour!E25)</f>
         <v/>
       </c>
-      <c r="H29" s="23" t="str">
+      <c r="H29" s="30" t="str">
         <f>IF(_screenCoke_day_hour!F25="","",_screenCoke_day_hour!F25)</f>
         <v/>
       </c>
-      <c r="I29" s="23" t="str">
+      <c r="I29" s="30" t="str">
         <f>IF(_screenCoke_day_hour!G25="","",_screenCoke_day_hour!G25)</f>
         <v/>
       </c>
-      <c r="J29" s="37" t="str">
+      <c r="J29" s="31" t="str">
         <f>IF(_screenCoke_day_hour!H25="","",_screenCoke_day_hour!H25)</f>
         <v/>
       </c>
-      <c r="K29" s="23" t="str">
+      <c r="K29" s="30" t="str">
         <f>IF(_screenCoke_day_hour!I25="","",_screenCoke_day_hour!I25)</f>
         <v/>
       </c>
-      <c r="L29" s="23" t="str">
+      <c r="L29" s="30" t="str">
         <f>IF(_screenCoke_day_hour!J25="","",_screenCoke_day_hour!J25)</f>
         <v/>
       </c>
-      <c r="M29" s="37" t="str">
+      <c r="M29" s="31" t="str">
         <f>IF(_screenCoke_day_hour!K25="","",_screenCoke_day_hour!K25)</f>
         <v/>
       </c>
-      <c r="N29" s="37" t="str">
+      <c r="N29" s="31" t="str">
         <f>IF(_screenCoke_day_hour!L25="","",_screenCoke_day_hour!L25)</f>
         <v/>
       </c>
-      <c r="O29" s="37" t="str">
+      <c r="O29" s="31" t="str">
         <f>IF(_screenCoke_day_hour!M25="","",_screenCoke_day_hour!M25)</f>
         <v/>
       </c>
-      <c r="P29" s="38" t="str">
+      <c r="P29" s="32" t="str">
         <f>IF(_screenCoke_day_hour!N25="","",_screenCoke_day_hour!N25)</f>
         <v/>
       </c>
-      <c r="Q29" s="38" t="str">
+      <c r="Q29" s="32" t="str">
         <f>IF(_screenCoke_day_hour!O25="","",_screenCoke_day_hour!O25)</f>
         <v/>
       </c>
-      <c r="R29" s="42" t="str">
+      <c r="R29" s="27" t="str">
         <f>IF(_screenCoke_day_hour!P25="","",_screenCoke_day_hour!P25)</f>
         <v/>
       </c>
-      <c r="S29" s="45" t="str">
+      <c r="S29" s="33" t="str">
         <f>IF(_screenCoke_day_hour!Q25="","",_screenCoke_day_hour!Q25)</f>
         <v/>
       </c>
     </row>
-    <row r="30" ht="21.5" customHeight="1" spans="2:19">
-      <c r="B30" s="24" t="s">
+    <row ht="21.5" customHeight="1" r="30">
+      <c r="B30" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="25" t="str">
-        <f t="shared" ref="C30:S30" si="0">IFERROR(AVERAGE(C6:C13),"")</f>
-        <v/>
-      </c>
-      <c r="D30" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E30" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F30" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G30" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H30" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I30" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J30" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K30" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L30" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M30" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N30" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="O30" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P30" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Q30" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="R30" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="S30" s="46" t="str">
-        <f t="shared" si="0"/>
+      <c r="C30" s="35" t="str">
+        <f>IFERROR(AVERAGE(C6:C13),"")</f>
+        <v/>
+      </c>
+      <c r="D30" s="36" t="str">
+        <f>IFERROR(AVERAGE(D6:D13),"")</f>
+        <v/>
+      </c>
+      <c r="E30" s="36" t="str">
+        <f>IFERROR(AVERAGE(E6:E13),"")</f>
+        <v/>
+      </c>
+      <c r="F30" s="36" t="str">
+        <f>IFERROR(AVERAGE(F6:F13),"")</f>
+        <v/>
+      </c>
+      <c r="G30" s="36" t="str">
+        <f>IFERROR(AVERAGE(G6:G13),"")</f>
+        <v/>
+      </c>
+      <c r="H30" s="36" t="str">
+        <f>IFERROR(AVERAGE(H6:H13),"")</f>
+        <v/>
+      </c>
+      <c r="I30" s="36" t="str">
+        <f>IFERROR(AVERAGE(I6:I13),"")</f>
+        <v/>
+      </c>
+      <c r="J30" s="36" t="str">
+        <f>IFERROR(AVERAGE(J6:J13),"")</f>
+        <v/>
+      </c>
+      <c r="K30" s="36" t="str">
+        <f>IFERROR(AVERAGE(K6:K13),"")</f>
+        <v/>
+      </c>
+      <c r="L30" s="31" t="str">
+        <f>IFERROR(AVERAGE(L6:L13),"")</f>
+        <v/>
+      </c>
+      <c r="M30" s="31" t="str">
+        <f>IFERROR(AVERAGE(M6:M13),"")</f>
+        <v/>
+      </c>
+      <c r="N30" s="31" t="str">
+        <f>IFERROR(AVERAGE(N6:N13),"")</f>
+        <v/>
+      </c>
+      <c r="O30" s="31" t="str">
+        <f>IFERROR(AVERAGE(O6:O13),"")</f>
+        <v/>
+      </c>
+      <c r="P30" s="31" t="str">
+        <f>IFERROR(AVERAGE(P6:P13),"")</f>
+        <v/>
+      </c>
+      <c r="Q30" s="31" t="str">
+        <f>IFERROR(AVERAGE(Q6:Q13),"")</f>
+        <v/>
+      </c>
+      <c r="R30" s="31" t="str">
+        <f>IFERROR(AVERAGE(R6:R13),"")</f>
+        <v/>
+      </c>
+      <c r="S30" s="37" t="str">
+        <f>IFERROR(AVERAGE(S6:S13),"")</f>
         <v/>
       </c>
     </row>
-    <row r="31" ht="21.5" customHeight="1" spans="2:19">
-      <c r="B31" s="24" t="s">
+    <row ht="21.5" customHeight="1" r="31">
+      <c r="B31" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="25" t="str">
-        <f t="shared" ref="C31:S31" si="1">IFERROR(AVERAGE(C14:C21),"")</f>
-        <v/>
-      </c>
-      <c r="D31" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E31" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F31" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G31" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H31" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I31" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J31" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K31" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L31" s="37" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M31" s="37" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N31" s="37" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O31" s="37" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="P31" s="37" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q31" s="37" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="R31" s="37" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S31" s="46" t="str">
-        <f t="shared" si="1"/>
+      <c r="C31" s="35" t="str">
+        <f>IFERROR(AVERAGE(C14:C21),"")</f>
+        <v/>
+      </c>
+      <c r="D31" s="36" t="str">
+        <f>IFERROR(AVERAGE(D14:D21),"")</f>
+        <v/>
+      </c>
+      <c r="E31" s="36" t="str">
+        <f>IFERROR(AVERAGE(E14:E21),"")</f>
+        <v/>
+      </c>
+      <c r="F31" s="36" t="str">
+        <f>IFERROR(AVERAGE(F14:F21),"")</f>
+        <v/>
+      </c>
+      <c r="G31" s="36" t="str">
+        <f>IFERROR(AVERAGE(G14:G21),"")</f>
+        <v/>
+      </c>
+      <c r="H31" s="36" t="str">
+        <f>IFERROR(AVERAGE(H14:H21),"")</f>
+        <v/>
+      </c>
+      <c r="I31" s="36" t="str">
+        <f>IFERROR(AVERAGE(I14:I21),"")</f>
+        <v/>
+      </c>
+      <c r="J31" s="36" t="str">
+        <f>IFERROR(AVERAGE(J14:J21),"")</f>
+        <v/>
+      </c>
+      <c r="K31" s="36" t="str">
+        <f>IFERROR(AVERAGE(K14:K21),"")</f>
+        <v/>
+      </c>
+      <c r="L31" s="31" t="str">
+        <f>IFERROR(AVERAGE(L14:L21),"")</f>
+        <v/>
+      </c>
+      <c r="M31" s="31" t="str">
+        <f>IFERROR(AVERAGE(M14:M21),"")</f>
+        <v/>
+      </c>
+      <c r="N31" s="31" t="str">
+        <f>IFERROR(AVERAGE(N14:N21),"")</f>
+        <v/>
+      </c>
+      <c r="O31" s="31" t="str">
+        <f>IFERROR(AVERAGE(O14:O21),"")</f>
+        <v/>
+      </c>
+      <c r="P31" s="31" t="str">
+        <f>IFERROR(AVERAGE(P14:P21),"")</f>
+        <v/>
+      </c>
+      <c r="Q31" s="31" t="str">
+        <f>IFERROR(AVERAGE(Q14:Q21),"")</f>
+        <v/>
+      </c>
+      <c r="R31" s="31" t="str">
+        <f>IFERROR(AVERAGE(R14:R21),"")</f>
+        <v/>
+      </c>
+      <c r="S31" s="37" t="str">
+        <f>IFERROR(AVERAGE(S14:S21),"")</f>
         <v/>
       </c>
     </row>
-    <row r="32" ht="21.5" customHeight="1" spans="2:19">
-      <c r="B32" s="24" t="s">
+    <row ht="21.5" customHeight="1" r="32">
+      <c r="B32" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="25" t="str">
-        <f t="shared" ref="C32:S32" si="2">IFERROR(AVERAGE(C22:C29),"")</f>
-        <v/>
-      </c>
-      <c r="D32" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E32" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F32" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G32" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H32" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I32" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J32" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K32" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L32" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M32" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N32" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="O32" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="P32" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="Q32" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="R32" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="S32" s="46" t="str">
-        <f t="shared" si="2"/>
+      <c r="C32" s="35" t="str">
+        <f>IFERROR(AVERAGE(C22:C29),"")</f>
+        <v/>
+      </c>
+      <c r="D32" s="36" t="str">
+        <f>IFERROR(AVERAGE(D22:D29),"")</f>
+        <v/>
+      </c>
+      <c r="E32" s="36" t="str">
+        <f>IFERROR(AVERAGE(E22:E29),"")</f>
+        <v/>
+      </c>
+      <c r="F32" s="36" t="str">
+        <f>IFERROR(AVERAGE(F22:F29),"")</f>
+        <v/>
+      </c>
+      <c r="G32" s="36" t="str">
+        <f>IFERROR(AVERAGE(G22:G29),"")</f>
+        <v/>
+      </c>
+      <c r="H32" s="36" t="str">
+        <f>IFERROR(AVERAGE(H22:H29),"")</f>
+        <v/>
+      </c>
+      <c r="I32" s="36" t="str">
+        <f>IFERROR(AVERAGE(I22:I29),"")</f>
+        <v/>
+      </c>
+      <c r="J32" s="36" t="str">
+        <f>IFERROR(AVERAGE(J22:J29),"")</f>
+        <v/>
+      </c>
+      <c r="K32" s="36" t="str">
+        <f>IFERROR(AVERAGE(K22:K29),"")</f>
+        <v/>
+      </c>
+      <c r="L32" s="31" t="str">
+        <f>IFERROR(AVERAGE(L22:L29),"")</f>
+        <v/>
+      </c>
+      <c r="M32" s="31" t="str">
+        <f>IFERROR(AVERAGE(M22:M29),"")</f>
+        <v/>
+      </c>
+      <c r="N32" s="31" t="str">
+        <f>IFERROR(AVERAGE(N22:N29),"")</f>
+        <v/>
+      </c>
+      <c r="O32" s="31" t="str">
+        <f>IFERROR(AVERAGE(O22:O29),"")</f>
+        <v/>
+      </c>
+      <c r="P32" s="31" t="str">
+        <f>IFERROR(AVERAGE(P22:P29),"")</f>
+        <v/>
+      </c>
+      <c r="Q32" s="31" t="str">
+        <f>IFERROR(AVERAGE(Q22:Q29),"")</f>
+        <v/>
+      </c>
+      <c r="R32" s="31" t="str">
+        <f>IFERROR(AVERAGE(R22:R29),"")</f>
+        <v/>
+      </c>
+      <c r="S32" s="37" t="str">
+        <f>IFERROR(AVERAGE(S22:S29),"")</f>
         <v/>
       </c>
     </row>
-    <row r="33" ht="21.5" customHeight="1" spans="2:19">
-      <c r="B33" s="27" t="s">
+    <row ht="21.5" customHeight="1" r="33">
+      <c r="B33" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="25" t="str">
-        <f t="shared" ref="C33:S33" si="3">IFERROR(AVERAGE(C6:C29),"")</f>
-        <v/>
-      </c>
-      <c r="D33" s="26" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E33" s="26" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F33" s="26" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G33" s="26" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H33" s="26" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I33" s="26" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J33" s="26" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K33" s="26" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L33" s="26" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="M33" s="26" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="N33" s="26" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O33" s="26" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P33" s="26" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="Q33" s="26" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="R33" s="26" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="S33" s="47" t="str">
-        <f t="shared" si="3"/>
+      <c r="C33" s="35" t="str">
+        <f>IFERROR(AVERAGE(C6:C29),"")</f>
+        <v/>
+      </c>
+      <c r="D33" s="36" t="str">
+        <f>IFERROR(AVERAGE(D6:D29),"")</f>
+        <v/>
+      </c>
+      <c r="E33" s="36" t="str">
+        <f>IFERROR(AVERAGE(E6:E29),"")</f>
+        <v/>
+      </c>
+      <c r="F33" s="36" t="str">
+        <f>IFERROR(AVERAGE(F6:F29),"")</f>
+        <v/>
+      </c>
+      <c r="G33" s="36" t="str">
+        <f>IFERROR(AVERAGE(G6:G29),"")</f>
+        <v/>
+      </c>
+      <c r="H33" s="36" t="str">
+        <f>IFERROR(AVERAGE(H6:H29),"")</f>
+        <v/>
+      </c>
+      <c r="I33" s="36" t="str">
+        <f>IFERROR(AVERAGE(I6:I29),"")</f>
+        <v/>
+      </c>
+      <c r="J33" s="36" t="str">
+        <f>IFERROR(AVERAGE(J6:J29),"")</f>
+        <v/>
+      </c>
+      <c r="K33" s="36" t="str">
+        <f>IFERROR(AVERAGE(K6:K29),"")</f>
+        <v/>
+      </c>
+      <c r="L33" s="36" t="str">
+        <f>IFERROR(AVERAGE(L6:L29),"")</f>
+        <v/>
+      </c>
+      <c r="M33" s="36" t="str">
+        <f>IFERROR(AVERAGE(M6:M29),"")</f>
+        <v/>
+      </c>
+      <c r="N33" s="36" t="str">
+        <f>IFERROR(AVERAGE(N6:N29),"")</f>
+        <v/>
+      </c>
+      <c r="O33" s="36" t="str">
+        <f>IFERROR(AVERAGE(O6:O29),"")</f>
+        <v/>
+      </c>
+      <c r="P33" s="36" t="str">
+        <f>IFERROR(AVERAGE(P6:P29),"")</f>
+        <v/>
+      </c>
+      <c r="Q33" s="36" t="str">
+        <f>IFERROR(AVERAGE(Q6:Q29),"")</f>
+        <v/>
+      </c>
+      <c r="R33" s="36" t="str">
+        <f>IFERROR(AVERAGE(R6:R29),"")</f>
+        <v/>
+      </c>
+      <c r="S33" s="39" t="str">
+        <f>IFERROR(AVERAGE(S6:S29),"")</f>
         <v/>
       </c>
     </row>
-    <row r="34" ht="58" customHeight="1" spans="2:19">
-      <c r="B34" s="28" t="s">
+    <row ht="58" customHeight="1" r="34">
+      <c r="B34" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="28" t="s">
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="28" t="s">
+      <c r="I34" s="41"/>
+      <c r="J34" s="41"/>
+      <c r="K34" s="41"/>
+      <c r="L34" s="41"/>
+      <c r="M34" s="42"/>
+      <c r="N34" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="O34" s="29"/>
-      <c r="P34" s="29"/>
-      <c r="Q34" s="29"/>
-      <c r="R34" s="29"/>
-      <c r="S34" s="30"/>
+      <c r="O34" s="41"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="41"/>
+      <c r="S34" s="42"/>
     </row>
-    <row r="35" ht="19.5" spans="2:19">
-      <c r="B35" s="31" t="s">
+    <row ht="19.5" r="35">
+      <c r="B35" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="31" t="s">
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="I35" s="32"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="32"/>
-      <c r="M35" s="33"/>
-      <c r="N35" s="31" t="s">
+      <c r="I35" s="44"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="44"/>
+      <c r="M35" s="45"/>
+      <c r="N35" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="O35" s="32"/>
-      <c r="P35" s="32"/>
-      <c r="Q35" s="32"/>
-      <c r="R35" s="32"/>
-      <c r="S35" s="33"/>
+      <c r="O35" s="44"/>
+      <c r="P35" s="44"/>
+      <c r="Q35" s="44"/>
+      <c r="R35" s="44"/>
+      <c r="S35" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -4398,12 +4497,6 @@
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="M3:P3"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="N34:S34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="N35:S35"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
@@ -4411,95 +4504,100 @@
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="S3:S4"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="N34:S34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="N35:S35"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <printOptions headings="0" gridLines="0" gridLinesSet="0"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:Q1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="16384" style="1" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" ht="63" spans="1:17">
-      <c r="A1" s="2" t="s">
+    <row ht="63" r="1">
+      <c r="A1" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="4"/>
-      <c r="P1" s="3" t="s">
+      <c r="O1" s="22"/>
+      <c r="P1" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="23" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <printOptions headings="0" gridLines="0" gridLinesSet="0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <printOptions headings="0" gridLines="0" gridLinesSet="0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>